--- a/sriramModel-nelson-melancholic-patientID_33-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_33-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.021329973502148</v>
+        <v>1.164722701291459</v>
       </c>
       <c r="C2">
-        <v>1.11128006197226</v>
+        <v>1.134163408977437</v>
       </c>
       <c r="D2">
-        <v>1.088319770294928</v>
+        <v>1.074997919093623</v>
       </c>
       <c r="E2">
-        <v>1.094860906162586</v>
+        <v>1.121200057886418</v>
       </c>
       <c r="F2">
-        <v>1.138856962995402</v>
+        <v>1.097430827922355</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.042610527266993</v>
+        <v>1.329078995902128</v>
       </c>
       <c r="C3">
-        <v>1.221596382173011</v>
+        <v>1.266554619999528</v>
       </c>
       <c r="D3">
-        <v>1.174893171350487</v>
+        <v>1.149910314258084</v>
       </c>
       <c r="E3">
-        <v>1.18940025877496</v>
+        <v>1.242122476974382</v>
       </c>
       <c r="F3">
-        <v>1.276723465233214</v>
+        <v>1.193243230583253</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.06384198400153</v>
+        <v>1.493077262865096</v>
       </c>
       <c r="C4">
-        <v>1.330991320964614</v>
+        <v>1.397289926319988</v>
       </c>
       <c r="D4">
-        <v>1.259785047006034</v>
+        <v>1.224738382874284</v>
       </c>
       <c r="E4">
-        <v>1.283631702608332</v>
+        <v>1.362776061205877</v>
       </c>
       <c r="F4">
-        <v>1.413640752661574</v>
+        <v>1.287521518520096</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.08502466648839</v>
+        <v>1.656725443446103</v>
       </c>
       <c r="C5">
-        <v>1.439504198802711</v>
+        <v>1.526473195050989</v>
       </c>
       <c r="D5">
-        <v>1.343042602921223</v>
+        <v>1.299483293884844</v>
       </c>
       <c r="E5">
-        <v>1.377567984106205</v>
+        <v>1.48316917218166</v>
       </c>
       <c r="F5">
-        <v>1.54964655512946</v>
+        <v>1.380326458158755</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.106158893143186</v>
+        <v>1.82003105778877</v>
       </c>
       <c r="C6">
-        <v>1.547171646726047</v>
+        <v>1.654197430571131</v>
       </c>
       <c r="D6">
-        <v>1.424700327193744</v>
+        <v>1.374146183895326</v>
       </c>
       <c r="E6">
-        <v>1.471221009859607</v>
+        <v>1.603309748584923</v>
       </c>
       <c r="F6">
-        <v>1.684775423550281</v>
+        <v>1.471701818457107</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.127244978629784</v>
+        <v>1.98300124706492</v>
       </c>
       <c r="C7">
-        <v>1.654027866042833</v>
+        <v>1.780546468938038</v>
       </c>
       <c r="D7">
-        <v>1.504783046538656</v>
+        <v>1.448728159700744</v>
       </c>
       <c r="E7">
-        <v>1.564601958813942</v>
+        <v>1.723205352550995</v>
       </c>
       <c r="F7">
-        <v>1.819059054856018</v>
+        <v>1.561678418292775</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.148283233546398</v>
+        <v>2.145642791325177</v>
       </c>
       <c r="C8">
-        <v>1.760104832822227</v>
+        <v>1.905596157336326</v>
       </c>
       <c r="D8">
-        <v>1.58330848157359</v>
+        <v>1.52323029839814</v>
       </c>
       <c r="E8">
-        <v>1.657721327999021</v>
+        <v>1.842863184241884</v>
       </c>
       <c r="F8">
-        <v>1.952526502106539</v>
+        <v>1.650277523671253</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.169273964221141</v>
+        <v>2.307962127107945</v>
       </c>
       <c r="C9">
-        <v>1.865432475511521</v>
+        <v>2.029415322313102</v>
       </c>
       <c r="D9">
-        <v>1.660289088500863</v>
+        <v>1.597653647988336</v>
       </c>
       <c r="E9">
-        <v>1.750588950955357</v>
+        <v>1.962290087871921</v>
       </c>
       <c r="F9">
-        <v>2.085204377893125</v>
+        <v>1.737513041064642</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.190217472967672</v>
+        <v>2.469965375407718</v>
       </c>
       <c r="C10">
-        <v>1.970038858557531</v>
+        <v>2.152066701102805</v>
       </c>
       <c r="D10">
-        <v>1.735733220169239</v>
+        <v>1.671999227568877</v>
       </c>
       <c r="E10">
-        <v>1.843214094774056</v>
+        <v>2.081492595589801</v>
       </c>
       <c r="F10">
-        <v>2.217117023429126</v>
+        <v>1.823393073675293</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.21111405813975</v>
+        <v>2.631658364704136</v>
       </c>
       <c r="C11">
-        <v>2.073950361219667</v>
+        <v>2.273607661430114</v>
       </c>
       <c r="D11">
-        <v>1.809646051272149</v>
+        <v>1.746268027873701</v>
       </c>
       <c r="E11">
-        <v>1.935605500190455</v>
+        <v>2.200476942144636</v>
       </c>
       <c r="F11">
-        <v>2.348286634439899</v>
+        <v>1.907921095754678</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.231964014101931</v>
+        <v>2.793046647070056</v>
       </c>
       <c r="C12">
-        <v>2.177191812486696</v>
+        <v>2.394090804282067</v>
       </c>
       <c r="D12">
-        <v>1.882030356180483</v>
+        <v>1.820461011585802</v>
       </c>
       <c r="E12">
-        <v>2.027771413375169</v>
+        <v>2.319249079022345</v>
       </c>
       <c r="F12">
-        <v>2.478733417879183</v>
+        <v>1.991096916254855</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.252767631208242</v>
+        <v>2.954135510504326</v>
       </c>
       <c r="C13">
-        <v>2.279786598090563</v>
+        <v>2.513564458955276</v>
       </c>
       <c r="D13">
-        <v>1.952887069015305</v>
+        <v>1.894579113806526</v>
       </c>
       <c r="E13">
-        <v>2.119719618735777</v>
+        <v>2.43781468908744</v>
       </c>
       <c r="F13">
-        <v>2.608475724355851</v>
+        <v>2.072917417601766</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.273525195799627</v>
+        <v>3.114929990843446</v>
       </c>
       <c r="C14">
-        <v>2.381756766393229</v>
+        <v>2.632073166031971</v>
       </c>
       <c r="D14">
-        <v>2.022215746177813</v>
+        <v>1.968623242278587</v>
       </c>
       <c r="E14">
-        <v>2.211457479674529</v>
+        <v>2.556179201849456</v>
       </c>
       <c r="F14">
-        <v>2.737530155984294</v>
+        <v>2.153377103299253</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.294236990200636</v>
+        <v>3.275434886682444</v>
       </c>
       <c r="C15">
-        <v>2.483123133847505</v>
+        <v>2.749658124265272</v>
       </c>
       <c r="D15">
-        <v>2.090014905065243</v>
+        <v>2.042594277536838</v>
       </c>
       <c r="E15">
-        <v>2.30299196976163</v>
+        <v>2.674347816656945</v>
       </c>
       <c r="F15">
-        <v>2.865911651888392</v>
+        <v>2.232468581907558</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.314903292705678</v>
+        <v>3.435654768214378</v>
       </c>
       <c r="C16">
-        <v>2.583905381613995</v>
+        <v>2.866357519931182</v>
       </c>
       <c r="D16">
-        <v>2.156282335712124</v>
+        <v>2.116493073016353</v>
       </c>
       <c r="E16">
-        <v>2.394329645932408</v>
+        <v>2.792325481708369</v>
       </c>
       <c r="F16">
-        <v>2.993633536752372</v>
+        <v>2.310182919389479</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.335524377551555</v>
+        <v>3.595593993840949</v>
       </c>
       <c r="C17">
-        <v>2.6841221348625</v>
+        <v>2.982206790635801</v>
       </c>
       <c r="D17">
-        <v>2.221015298953002</v>
+        <v>2.190320455095665</v>
       </c>
       <c r="E17">
-        <v>2.485476753902275</v>
+        <v>2.91011694174065</v>
       </c>
       <c r="F17">
-        <v>3.120707575102979</v>
+        <v>2.38650991879385</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.356100514888635</v>
+        <v>3.755256713492955</v>
       </c>
       <c r="C18">
-        <v>2.783791056432651</v>
+        <v>3.09723888187849</v>
       </c>
       <c r="D18">
-        <v>2.284210704142164</v>
+        <v>2.264077223026153</v>
       </c>
       <c r="E18">
-        <v>2.576439219539563</v>
+        <v>3.027726733775723</v>
       </c>
       <c r="F18">
-        <v>3.247144039369037</v>
+        <v>2.461438394779039</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.376631970748616</v>
+        <v>3.914646880605197</v>
       </c>
       <c r="C19">
-        <v>2.88292886992491</v>
+        <v>3.211484483995875</v>
       </c>
       <c r="D19">
-        <v>2.345865291832675</v>
+        <v>2.337764148932502</v>
       </c>
       <c r="E19">
-        <v>2.667222672890257</v>
+        <v>3.145159211485984</v>
       </c>
       <c r="F19">
-        <v>3.37295175461088</v>
+        <v>2.534956410318931</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.397119007000994</v>
+        <v>4.073768261103405</v>
       </c>
       <c r="C20">
-        <v>2.981551491560198</v>
+        <v>3.324972256137552</v>
       </c>
       <c r="D20">
-        <v>2.40597576951515</v>
+        <v>2.411381977368291</v>
       </c>
       <c r="E20">
-        <v>2.757832467360181</v>
+        <v>3.262418538798292</v>
       </c>
       <c r="F20">
-        <v>3.498138140677807</v>
+        <v>2.607051441035146</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.417561881278044</v>
+        <v>4.232624431332703</v>
       </c>
       <c r="C21">
-        <v>3.079673998775315</v>
+        <v>3.437728980378048</v>
       </c>
       <c r="D21">
-        <v>2.464538896715607</v>
+        <v>2.484931425469105</v>
       </c>
       <c r="E21">
-        <v>2.848273674717808</v>
+        <v>3.379508699089364</v>
       </c>
       <c r="F21">
-        <v>3.622709231917238</v>
+        <v>2.677710504009438</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.437960846899595</v>
+        <v>4.39121879514048</v>
       </c>
       <c r="C22">
-        <v>3.177310750349335</v>
+        <v>3.549779809486719</v>
       </c>
       <c r="D22">
-        <v>2.521551554235808</v>
+        <v>2.558413181919961</v>
       </c>
       <c r="E22">
-        <v>2.938551115147492</v>
+        <v>3.496433503588089</v>
       </c>
       <c r="F22">
-        <v>3.746669706488381</v>
+        <v>2.746920284860025</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.458316152823358</v>
+        <v>4.549554572093799</v>
       </c>
       <c r="C23">
-        <v>3.274475389680765</v>
+        <v>3.661148358738314</v>
       </c>
       <c r="D23">
-        <v>2.577010816145838</v>
+        <v>2.63182790712245</v>
       </c>
       <c r="E23">
-        <v>3.028669372616275</v>
+        <v>3.613196597443268</v>
       </c>
       <c r="F23">
-        <v>3.870022899027835</v>
+        <v>2.814667255369588</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.478628043520269</v>
+        <v>4.707634815454214</v>
       </c>
       <c r="C24">
-        <v>3.371180905305914</v>
+        <v>3.771856763521066</v>
       </c>
       <c r="D24">
-        <v>2.630914009786467</v>
+        <v>2.705176231858643</v>
       </c>
       <c r="E24">
-        <v>3.1186328087418</v>
+        <v>3.729801470812478</v>
       </c>
       <c r="F24">
-        <v>3.992770777367362</v>
+        <v>2.880937784647091</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.498896758849116</v>
+        <v>4.865462399422815</v>
       </c>
       <c r="C25">
-        <v>3.467439677297452</v>
+        <v>3.881925796750519</v>
       </c>
       <c r="D25">
-        <v>2.683258777083542</v>
+        <v>2.778458756932502</v>
       </c>
       <c r="E25">
-        <v>3.208445574635644</v>
+        <v>3.846251462755621</v>
       </c>
       <c r="F25">
-        <v>4.114913999324345</v>
+        <v>2.945718191306459</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.519122533907411</v>
+        <v>5.02304003126317</v>
       </c>
       <c r="C26">
-        <v>3.563263495105527</v>
+        <v>3.991375031989081</v>
       </c>
       <c r="D26">
-        <v>2.734043076548804</v>
+        <v>2.851676052118486</v>
       </c>
       <c r="E26">
-        <v>3.298111619557876</v>
+        <v>3.962549765483615</v>
       </c>
       <c r="F26">
-        <v>4.236451836377966</v>
+        <v>3.008994892091497</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.539305598961073</v>
+        <v>5.180370240984882</v>
       </c>
       <c r="C27">
-        <v>3.658663610055518</v>
+        <v>4.100222919990216</v>
       </c>
       <c r="D27">
-        <v>2.78326528711533</v>
+        <v>2.924828654552318</v>
       </c>
       <c r="E27">
-        <v>3.387634702783665</v>
+        <v>4.078699428815781</v>
       </c>
       <c r="F27">
-        <v>4.357382231363895</v>
+        <v>3.070754362910553</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.559446179170318</v>
+        <v>5.337455385569041</v>
       </c>
       <c r="C28">
-        <v>3.753650747411123</v>
+        <v>4.20848690118475</v>
       </c>
       <c r="D28">
-        <v>2.830924129421129</v>
+        <v>2.997917068477864</v>
       </c>
       <c r="E28">
-        <v>3.477018399560064</v>
+        <v>4.194703362744923</v>
       </c>
       <c r="F28">
-        <v>4.477701728829566</v>
+        <v>3.130983285043333</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.579544494398878</v>
+        <v>5.494297640422129</v>
       </c>
       <c r="C29">
-        <v>3.848235140699371</v>
+        <v>4.316183444894916</v>
       </c>
       <c r="D29">
-        <v>2.877018779986258</v>
+        <v>3.070941762069581</v>
       </c>
       <c r="E29">
-        <v>3.566266111058093</v>
+        <v>4.310564341367268</v>
       </c>
       <c r="F29">
-        <v>4.597405497627939</v>
+        <v>3.18966852105797</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.599600758933029</v>
+        <v>5.650898994761728</v>
       </c>
       <c r="C30">
-        <v>3.942426558203624</v>
+        <v>4.42332811046228</v>
       </c>
       <c r="D30">
-        <v>2.921548792899617</v>
+        <v>3.143903167498467</v>
       </c>
       <c r="E30">
-        <v>3.655381067738213</v>
+        <v>4.426285005795476</v>
       </c>
       <c r="F30">
-        <v>4.71648727230973</v>
+        <v>3.246797179921098</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.61961518138662</v>
+        <v>5.807261245329262</v>
       </c>
       <c r="C31">
-        <v>4.036234314257241</v>
+        <v>4.529935610963228</v>
       </c>
       <c r="D31">
-        <v>2.964514157940512</v>
+        <v>3.216801676684551</v>
       </c>
       <c r="E31">
-        <v>3.744366336003618</v>
+        <v>4.541867865875186</v>
       </c>
       <c r="F31">
-        <v>4.83493934072126</v>
+        <v>3.30235666597137</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.639587964152943</v>
+        <v>5.96338597920797</v>
       </c>
       <c r="C32">
-        <v>4.129667303599901</v>
+        <v>4.636019862119427</v>
       </c>
       <c r="D32">
-        <v>3.005915281870198</v>
+        <v>3.289637640899349</v>
       </c>
       <c r="E32">
-        <v>3.833224823388462</v>
+        <v>4.657315301815601</v>
       </c>
       <c r="F32">
-        <v>4.952752500041866</v>
+        <v>3.356334678509501</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.659519303097698</v>
+        <v>6.119274573381662</v>
       </c>
       <c r="C33">
-        <v>4.222734006666995</v>
+        <v>4.741594040701277</v>
       </c>
       <c r="D33">
-        <v>3.045752977721758</v>
+        <v>3.362411366044618</v>
       </c>
       <c r="E33">
-        <v>3.921959280938426</v>
+        <v>4.772629563974505</v>
       </c>
       <c r="F33">
-        <v>5.069915997243111</v>
+        <v>3.408719255437375</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.679409387147311</v>
+        <v>6.274928157241781</v>
       </c>
       <c r="C34">
-        <v>4.315442513616464</v>
+        <v>4.846670627118146</v>
       </c>
       <c r="D34">
-        <v>3.084028476230845</v>
+        <v>3.435123110616721</v>
       </c>
       <c r="E34">
-        <v>4.010572310532237</v>
+        <v>4.887812772639275</v>
       </c>
       <c r="F34">
-        <v>5.18641751662398</v>
+        <v>3.459498781485398</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.69925839794103</v>
+        <v>6.430347623492572</v>
       </c>
       <c r="C35">
-        <v>4.407800536629868</v>
+        <v>4.951261441548969</v>
       </c>
       <c r="D35">
-        <v>3.120743383587615</v>
+        <v>3.507773081424692</v>
       </c>
       <c r="E35">
-        <v>4.099066361512067</v>
+        <v>5.002866916930546</v>
       </c>
       <c r="F35">
-        <v>5.302243071541964</v>
+        <v>3.508661978431693</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.719066508990329</v>
+        <v>6.585533563911816</v>
       </c>
       <c r="C36">
-        <v>4.499815416305323</v>
+        <v>5.055377681559919</v>
       </c>
       <c r="D36">
-        <v>3.155899682457292</v>
+        <v>3.580361428078063</v>
       </c>
       <c r="E36">
-        <v>4.187443741097968</v>
+        <v>5.117793852764733</v>
       </c>
       <c r="F36">
-        <v>5.417377000169272</v>
+        <v>3.556197936795948</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.73883388505566</v>
+        <v>6.740486288303127</v>
       </c>
       <c r="C37">
-        <v>4.591494142769268</v>
+        <v>5.159029942673216</v>
       </c>
       <c r="D37">
-        <v>3.189499688760312</v>
+        <v>3.652888240715996</v>
       </c>
       <c r="E37">
-        <v>4.275706602145938</v>
+        <v>5.232595299853243</v>
       </c>
       <c r="F37">
-        <v>5.531801840416202</v>
+        <v>3.602096065636049</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.758560681560153</v>
+        <v>6.895205733629509</v>
       </c>
       <c r="C38">
-        <v>4.682843350191557</v>
+        <v>5.262228248928431</v>
       </c>
       <c r="D38">
-        <v>3.221546011758638</v>
+        <v>3.725353539085473</v>
       </c>
       <c r="E38">
-        <v>4.363856957749057</v>
+        <v>5.347272837028922</v>
       </c>
       <c r="F38">
-        <v>5.645498305092026</v>
+        <v>3.646346104903495</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.77824704366666</v>
+        <v>7.049691485060717</v>
       </c>
       <c r="C39">
-        <v>4.773869333661255</v>
+        <v>5.364982074415557</v>
       </c>
       <c r="D39">
-        <v>3.252041539755222</v>
+        <v>3.797757272116103</v>
       </c>
       <c r="E39">
-        <v>4.451896660405556</v>
+        <v>5.46182789655998</v>
       </c>
       <c r="F39">
-        <v>5.758445156995311</v>
+        <v>3.688938091749631</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.797893104963223</v>
+        <v>7.203942654307882</v>
       </c>
       <c r="C40">
-        <v>4.864578047251576</v>
+        <v>5.467300363182967</v>
       </c>
       <c r="D40">
-        <v>3.280989348899864</v>
+        <v>3.870099302061117</v>
       </c>
       <c r="E40">
-        <v>4.539827418182903</v>
+        <v>5.576261756587124</v>
       </c>
       <c r="F40">
-        <v>5.870619144686856</v>
+        <v>3.729862310893235</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.817498986176351</v>
+        <v>7.357957897631452</v>
       </c>
       <c r="C41">
-        <v>4.95497510332922</v>
+        <v>5.569191541961552</v>
       </c>
       <c r="D41">
-        <v>3.308392693170956</v>
+        <v>3.942379402980263</v>
       </c>
       <c r="E41">
-        <v>4.627650768453476</v>
+        <v>5.690575532444171</v>
       </c>
       <c r="F41">
-        <v>5.98199489585615</v>
+        <v>3.769109283910969</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.837064794307646</v>
+        <v>7.511735256588713</v>
       </c>
       <c r="C42">
-        <v>5.045065781746608</v>
+        <v>5.670663529467368</v>
       </c>
       <c r="D42">
-        <v>3.334254899975442</v>
+        <v>4.014597241924855</v>
       </c>
       <c r="E42">
-        <v>4.715368092080276</v>
+        <v>5.804770164578425</v>
       </c>
       <c r="F42">
-        <v>6.092544785400451</v>
+        <v>3.806669675798248</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.856590620816536</v>
+        <v>7.66527216263413</v>
       </c>
       <c r="C43">
-        <v>5.134855010578169</v>
+        <v>5.771723741452307</v>
       </c>
       <c r="D43">
-        <v>3.358579322271045</v>
+        <v>4.086752372024534</v>
       </c>
       <c r="E43">
-        <v>4.802980582100383</v>
+        <v>5.91884640453013</v>
       </c>
       <c r="F43">
-        <v>6.202238872167202</v>
+        <v>3.842534248940952</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.876076538754596</v>
+        <v>7.8185652351093</v>
       </c>
       <c r="C44">
-        <v>5.224347373457826</v>
+        <v>5.872379092777614</v>
       </c>
       <c r="D44">
-        <v>3.381369253122721</v>
+        <v>4.158844213734219</v>
       </c>
       <c r="E44">
-        <v>4.890489254983827</v>
+        <v>6.032804797593534</v>
       </c>
       <c r="F44">
-        <v>6.311044689103539</v>
+        <v>3.876693790023428</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.895522600476323</v>
+        <v>7.971610249578684</v>
       </c>
       <c r="C45">
-        <v>5.313547088037901</v>
+        <v>5.972635990118127</v>
       </c>
       <c r="D45">
-        <v>3.402627822185656</v>
+        <v>4.23087203447421</v>
       </c>
       <c r="E45">
-        <v>4.977894910632353</v>
+        <v>6.146645661659661</v>
       </c>
       <c r="F45">
-        <v>6.418927195841402</v>
+        <v>3.909138980286728</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.914928835166158</v>
+        <v>8.124401894383636</v>
       </c>
       <c r="C46">
-        <v>5.402457991684051</v>
+        <v>6.072500321129549</v>
       </c>
       <c r="D46">
-        <v>3.4223578903656</v>
+        <v>4.302834936805991</v>
       </c>
       <c r="E46">
-        <v>5.065198145164706</v>
+        <v>6.260369062450519</v>
       </c>
       <c r="F46">
-        <v>6.525848531024576</v>
+        <v>3.939860354248823</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.934295245308368</v>
+        <v>8.276933655106228</v>
       </c>
       <c r="C47">
-        <v>5.491083531738889</v>
+        <v>6.171977434927514</v>
       </c>
       <c r="D47">
-        <v>3.44056192800943</v>
+        <v>4.374731812469538</v>
       </c>
       <c r="E47">
-        <v>5.152399294915261</v>
+        <v>6.3739747807225</v>
       </c>
       <c r="F47">
-        <v>6.631767935953023</v>
+        <v>3.968848102772434</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.95362180225895</v>
+        <v>8.429197548412247</v>
       </c>
       <c r="C48">
-        <v>5.579426716410311</v>
+        <v>6.271072116851326</v>
       </c>
       <c r="D48">
-        <v>3.457241897710761</v>
+        <v>4.446561342100218</v>
       </c>
       <c r="E48">
-        <v>5.239498423071999</v>
+        <v>6.487462274286334</v>
       </c>
       <c r="F48">
-        <v>6.736641501942283</v>
+        <v>3.996091967611257</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.972908440955593</v>
+        <v>8.581183923710599</v>
       </c>
       <c r="C49">
-        <v>5.6674901089263</v>
+        <v>6.369788548109276</v>
       </c>
       <c r="D49">
-        <v>3.472399103881074</v>
+        <v>4.518321919079188</v>
       </c>
       <c r="E49">
-        <v>5.326495282484984</v>
+        <v>6.600830629939104</v>
       </c>
       <c r="F49">
-        <v>6.840422026119366</v>
+        <v>4.021581084710653</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.992155053522305</v>
+        <v>8.732880970186859</v>
       </c>
       <c r="C50">
-        <v>5.755275756820111</v>
+        <v>6.468130252765663</v>
       </c>
       <c r="D50">
-        <v>3.486034042465407</v>
+        <v>4.590011654346817</v>
       </c>
       <c r="E50">
-        <v>5.413389273267359</v>
+        <v>6.714078508207222</v>
       </c>
       <c r="F50">
-        <v>6.943058790757329</v>
+        <v>4.045303810949672</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.011361481320201</v>
+        <v>8.884274376785681</v>
       </c>
       <c r="C51">
-        <v>5.842785166116485</v>
+        <v>6.5661000285975</v>
       </c>
       <c r="D51">
-        <v>3.498146233808144</v>
+        <v>4.66162827166631</v>
       </c>
       <c r="E51">
-        <v>5.500179386648067</v>
+        <v>6.827204069502664</v>
       </c>
       <c r="F51">
-        <v>7.044497298573047</v>
+        <v>4.067247541133947</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.030527505201982</v>
+        <v>9.035346812013191</v>
       </c>
       <c r="C52">
-        <v>5.930019200353182</v>
+        <v>6.663699861155162</v>
       </c>
       <c r="D52">
-        <v>3.508734035200469</v>
+        <v>4.733169063475509</v>
       </c>
       <c r="E52">
-        <v>5.586864135826834</v>
+        <v>6.940204884589603</v>
       </c>
       <c r="F52">
-        <v>7.144679129744193</v>
+        <v>4.087398499546198</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.049652833303271</v>
+        <v>9.186077368781037</v>
       </c>
       <c r="C53">
-        <v>6.016978007163882</v>
+        <v>6.760930807464742</v>
       </c>
       <c r="D53">
-        <v>3.517794452385964</v>
+        <v>4.804630806457789</v>
       </c>
       <c r="E53">
-        <v>5.673441478755249</v>
+        <v>7.053077823448326</v>
       </c>
       <c r="F53">
-        <v>7.243541542183592</v>
+        <v>4.105741521342633</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.068737085897265</v>
+        <v>9.336440726914804</v>
       </c>
       <c r="C54">
-        <v>6.103660913274152</v>
+        <v>6.857792838765036</v>
       </c>
       <c r="D54">
-        <v>3.525322945207698</v>
+        <v>4.876009665937082</v>
       </c>
       <c r="E54">
-        <v>5.759908698596891</v>
+        <v>7.165818913156105</v>
       </c>
       <c r="F54">
-        <v>7.341017357046804</v>
+        <v>4.122259829097136</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.087779776457803</v>
+        <v>9.486406166706404</v>
       </c>
       <c r="C55">
-        <v>6.190066285382723</v>
+        <v>6.95428464201782</v>
       </c>
       <c r="D55">
-        <v>3.531313230191</v>
+        <v>4.947301067466509</v>
       </c>
       <c r="E55">
-        <v>5.846262270577735</v>
+        <v>7.278423172043302</v>
       </c>
       <c r="F55">
-        <v>7.437034504285351</v>
+        <v>4.136934799368685</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.106780281903166</v>
+        <v>9.635936409860046</v>
       </c>
       <c r="C56">
-        <v>6.27619135732181</v>
+        <v>7.050403394010224</v>
       </c>
       <c r="D56">
-        <v>3.535757093100268</v>
+        <v>5.018499537483429</v>
       </c>
       <c r="E56">
-        <v>5.93249769749001</v>
+        <v>7.390884371118793</v>
       </c>
       <c r="F56">
-        <v>7.531515861398865</v>
+        <v>4.149745752330662</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.125737814009465</v>
+        <v>9.784986296306402</v>
       </c>
       <c r="C57">
-        <v>6.362032009013388</v>
+        <v>7.146144361305609</v>
       </c>
       <c r="D57">
-        <v>3.538644212620086</v>
+        <v>5.089598507888453</v>
       </c>
       <c r="E57">
-        <v>6.018609292089852</v>
+        <v>7.503194749781084</v>
       </c>
       <c r="F57">
-        <v>7.62437880971591</v>
+        <v>4.160669753257211</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.14465138086699</v>
+        <v>9.93350062432034</v>
       </c>
       <c r="C58">
-        <v>6.447582471547823</v>
+        <v>7.241500476133644</v>
       </c>
       <c r="D58">
-        <v>3.539962034674698</v>
+        <v>5.160590075736899</v>
       </c>
       <c r="E58">
-        <v>6.104589882587301</v>
+        <v>7.615344633914667</v>
       </c>
       <c r="F58">
-        <v>7.715534983931475</v>
+        <v>4.169681449054104</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.163519720708037</v>
+        <v>10.08141198276194</v>
       </c>
       <c r="C59">
-        <v>6.532834961507542</v>
+        <v>7.336461745408444</v>
       </c>
       <c r="D59">
-        <v>3.539695702165456</v>
+        <v>5.231464670673489</v>
       </c>
       <c r="E59">
-        <v>6.190430467222163</v>
+        <v>7.727321970544131</v>
       </c>
       <c r="F59">
-        <v>7.804889888628434</v>
+        <v>4.176752996873573</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.182341230767809</v>
+        <v>10.228638024672</v>
       </c>
       <c r="C60">
-        <v>6.617779198816484</v>
+        <v>7.431014444085918</v>
       </c>
       <c r="D60">
-        <v>3.537828071246103</v>
+        <v>5.302210655256605</v>
       </c>
       <c r="E60">
-        <v>6.276119678214287</v>
+        <v>7.839111681961153</v>
       </c>
       <c r="F60">
-        <v>7.89234255555312</v>
+        <v>4.181854100593964</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.201113869702456</v>
+        <v>10.37507802214165</v>
       </c>
       <c r="C61">
-        <v>6.702401757475349</v>
+        <v>7.525140010381344</v>
       </c>
       <c r="D61">
-        <v>3.534339853717236</v>
+        <v>5.372813779975568</v>
       </c>
       <c r="E61">
-        <v>6.361643164575528</v>
+        <v>7.950694807532488</v>
       </c>
       <c r="F61">
-        <v>7.97778523380328</v>
+        <v>4.184952187895113</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.219835016178356</v>
+        <v>10.52060857265657</v>
       </c>
       <c r="C62">
-        <v>6.78668533254131</v>
+        <v>7.618813546833338</v>
       </c>
       <c r="D62">
-        <v>3.529209928529466</v>
+        <v>5.443256567035851</v>
       </c>
       <c r="E62">
-        <v>6.446982757183772</v>
+        <v>8.062047385553836</v>
       </c>
       <c r="F62">
-        <v>8.061103049508416</v>
+        <v>4.186012800701457</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.238501278835997</v>
+        <v>10.66507841594664</v>
       </c>
       <c r="C63">
-        <v>6.87060743108429</v>
+        <v>7.712001777623718</v>
       </c>
       <c r="D63">
-        <v>3.522415865244621</v>
+        <v>5.513517388140651</v>
       </c>
       <c r="E63">
-        <v>6.532115318470349</v>
+        <v>8.173139064546506</v>
       </c>
       <c r="F63">
-        <v>8.142173737276394</v>
+        <v>4.185000247969212</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.257108233888181</v>
+        <v>10.80830227566047</v>
       </c>
       <c r="C64">
-        <v>6.954138928772266</v>
+        <v>7.804660263128961</v>
       </c>
       <c r="D64">
-        <v>3.513934683063181</v>
+        <v>5.583569261652033</v>
       </c>
       <c r="E64">
-        <v>6.61701117946185</v>
+        <v>8.283930800966923</v>
       </c>
       <c r="F64">
-        <v>8.22086741664865</v>
+        <v>4.181878580096399</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.275650052541877</v>
+        <v>10.950053630511</v>
       </c>
       <c r="C65">
-        <v>7.037242036591064</v>
+        <v>7.896729265290049</v>
       </c>
       <c r="D65">
-        <v>3.503743872320775</v>
+        <v>5.653378246407343</v>
       </c>
       <c r="E65">
-        <v>6.701632032898729</v>
+        <v>8.394372219231858</v>
       </c>
       <c r="F65">
-        <v>8.297046474526482</v>
+        <v>4.176612894710392</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.294118980694093</v>
+        <v>11.09005642678194</v>
       </c>
       <c r="C66">
-        <v>7.119867451912805</v>
+        <v>7.988128424638805</v>
       </c>
       <c r="D66">
-        <v>3.491822650484209</v>
+        <v>5.722901457156372</v>
       </c>
       <c r="E66">
-        <v>6.78592811388403</v>
+        <v>8.50439799631161</v>
       </c>
       <c r="F66">
-        <v>8.370565575797599</v>
+        <v>4.169170968155135</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.312504591561152</v>
+        <v>11.22797595472189</v>
       </c>
       <c r="C67">
-        <v>7.201950441811842</v>
+        <v>8.078749283258261</v>
       </c>
       <c r="D67">
-        <v>3.478153385198784</v>
+        <v>5.792084348566012</v>
       </c>
       <c r="E67">
-        <v>6.869834029363306</v>
+        <v>8.613922710268312</v>
       </c>
       <c r="F67">
-        <v>8.44127179344426</v>
+        <v>4.159525139724383</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.330792734638807</v>
+        <v>11.36340940831599</v>
       </c>
       <c r="C68">
-        <v>7.283405383064033</v>
+        <v>8.168444890053784</v>
       </c>
       <c r="D68">
-        <v>3.462723084211509</v>
+        <v>5.860857122979182</v>
       </c>
       <c r="E68">
-        <v>6.953263456397412</v>
+        <v>8.722833742215723</v>
       </c>
       <c r="F68">
-        <v>8.50900502660679</v>
+        <v>4.14765430449338</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2.348964035178651</v>
+        <v>11.49587705949266</v>
       </c>
       <c r="C69">
-        <v>7.364117988868308</v>
+        <v>8.2570162301668</v>
       </c>
       <c r="D69">
-        <v>3.445524771844146</v>
+        <v>5.929129720553614</v>
       </c>
       <c r="E69">
-        <v>7.036101796021117</v>
+        <v>8.830982392646145</v>
       </c>
       <c r="F69">
-        <v>8.573598735181026</v>
+        <v>4.133545829895832</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2.36699177753544</v>
+        <v>11.62481522959489</v>
       </c>
       <c r="C70">
-        <v>7.443935109960813</v>
+        <v>8.344194507844694</v>
       </c>
       <c r="D70">
-        <v>3.426558555029203</v>
+        <v>5.996785560511907</v>
       </c>
       <c r="E70">
-        <v>7.118196137840002</v>
+        <v>8.938171777165495</v>
       </c>
       <c r="F70">
-        <v>8.634880959782867</v>
+        <v>4.117197096473515</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.384839060915718</v>
+        <v>11.7495743636779</v>
       </c>
       <c r="C71">
-        <v>7.522650307188931</v>
+        <v>8.429619577988172</v>
       </c>
       <c r="D71">
-        <v>3.405832325490994</v>
+        <v>6.063673554414994</v>
       </c>
       <c r="E71">
-        <v>7.199342119468692</v>
+        <v>9.044141550064767</v>
       </c>
       <c r="F71">
-        <v>8.692676188773953</v>
+        <v>4.098616555664623</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.402454975017092</v>
+        <v>11.8694234940601</v>
       </c>
       <c r="C72">
-        <v>7.599984863467311</v>
+        <v>8.512815098852654</v>
       </c>
       <c r="D72">
-        <v>3.383361988758495</v>
+        <v>6.129597918506973</v>
       </c>
       <c r="E72">
-        <v>7.279267485921908</v>
+        <v>9.148549532878208</v>
       </c>
       <c r="F72">
-        <v>8.746807419453395</v>
+        <v>4.07782412900823</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.419769827491791</v>
+        <v>11.98356482999218</v>
       </c>
       <c r="C73">
-        <v>7.675563387560747</v>
+        <v>8.593163488659485</v>
       </c>
       <c r="D73">
-        <v>3.359171178298766</v>
+        <v>6.19430611466364</v>
       </c>
       <c r="E73">
-        <v>7.357612312220965</v>
+        <v>9.250951086354947</v>
       </c>
       <c r="F73">
-        <v>8.797099006223979</v>
+        <v>4.054850924764308</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2.43668962584821</v>
+        <v>12.09116158119664</v>
       </c>
       <c r="C74">
-        <v>7.748885129574541</v>
+        <v>8.669885737667354</v>
       </c>
       <c r="D74">
-        <v>3.333290606941596</v>
+        <v>6.257475798629994</v>
       </c>
       <c r="E74">
-        <v>7.433907961860826</v>
+        <v>9.350778880243125</v>
       </c>
       <c r="F74">
-        <v>8.843380431031594</v>
+        <v>4.029738355673071</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2.453090518056984</v>
+        <v>12.1913801704991</v>
       </c>
       <c r="C75">
-        <v>7.819293791089295</v>
+        <v>8.742033513458765</v>
       </c>
       <c r="D75">
-        <v>3.305757126998143</v>
+        <v>6.318702673419669</v>
       </c>
       <c r="E75">
-        <v>7.507558815857432</v>
+        <v>9.44732807060841</v>
       </c>
       <c r="F75">
-        <v>8.885490935842949</v>
+        <v>4.002536846257926</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>2.468814611457808</v>
+        <v>12.28344588992797</v>
       </c>
       <c r="C76">
-        <v>7.885953812583892</v>
+        <v>8.808504052417037</v>
       </c>
       <c r="D76">
-        <v>3.276612638316214</v>
+        <v>6.377493040383737</v>
       </c>
       <c r="E76">
-        <v>7.577834491837668</v>
+        <v>9.539754002704173</v>
       </c>
       <c r="F76">
-        <v>8.923284945447286</v>
+        <v>3.973304268017938</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>2.483669397571645</v>
+        <v>12.36670445842239</v>
       </c>
       <c r="C77">
-        <v>7.947846993563561</v>
+        <v>8.868087671893139</v>
       </c>
       <c r="D77">
-        <v>3.245902974855748</v>
+        <v>6.433267417764506</v>
       </c>
       <c r="E77">
-        <v>7.643882708033336</v>
+        <v>9.627093777545092</v>
       </c>
       <c r="F77">
-        <v>8.956638200171524</v>
+        <v>3.942104308598888</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2.497433608525832</v>
+        <v>12.44068390189367</v>
       </c>
       <c r="C78">
-        <v>8.003805709409848</v>
+        <v>8.919553762359275</v>
       </c>
       <c r="D78">
-        <v>3.213676847169655</v>
+        <v>6.485382711636298</v>
       </c>
       <c r="E78">
-        <v>7.704774626930027</v>
+        <v>9.70831803468762</v>
       </c>
       <c r="F78">
-        <v>8.985454380798352</v>
+        <v>3.909004904707181</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2.509872050620553</v>
+        <v>12.50514312405322</v>
       </c>
       <c r="C79">
-        <v>8.052600199026971</v>
+        <v>8.961771014995479</v>
       </c>
       <c r="D79">
-        <v>3.179984889187995</v>
+        <v>6.533178120742391</v>
       </c>
       <c r="E79">
-        <v>7.759588958018067</v>
+        <v>9.782418121708478</v>
       </c>
       <c r="F79">
-        <v>9.009671801070372</v>
+        <v>3.874076815495656</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2.520759956500276</v>
+        <v>12.56009786863627</v>
       </c>
       <c r="C80">
-        <v>8.093082186345066</v>
+        <v>8.993843495269735</v>
       </c>
       <c r="D80">
-        <v>3.144878850518334</v>
+        <v>6.576046796113258</v>
       </c>
       <c r="E80">
-        <v>7.807528368498001</v>
+        <v>9.848520318489907</v>
       </c>
       <c r="F80">
-        <v>9.029269569061363</v>
+        <v>3.837392396059081</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2.529913631554797</v>
+        <v>12.60581839079723</v>
       </c>
       <c r="C81">
-        <v>8.124362332282431</v>
+        <v>9.015231899046812</v>
       </c>
       <c r="D81">
-        <v>3.108410921477438</v>
+        <v>6.613521614558671</v>
       </c>
       <c r="E81">
-        <v>7.848043871554039</v>
+        <v>9.906004485579114</v>
       </c>
       <c r="F81">
-        <v>9.044272515476283</v>
+        <v>3.799024572781756</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2.537219923598536</v>
+        <v>12.6427994047461</v>
       </c>
       <c r="C82">
-        <v>8.145971892706388</v>
+        <v>9.025827059128114</v>
       </c>
       <c r="D82">
-        <v>3.070633203482996</v>
+        <v>6.645353841300587</v>
       </c>
       <c r="E82">
-        <v>7.880930054246708</v>
+        <v>9.954596229786778</v>
       </c>
       <c r="F82">
-        <v>9.054754362318217</v>
+        <v>3.75904602056008</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2.542655195152127</v>
+        <v>12.67170943304645</v>
       </c>
       <c r="C83">
-        <v>8.157951063774215</v>
+        <v>9.025954939054063</v>
       </c>
       <c r="D83">
-        <v>3.031597284786222</v>
+        <v>6.671558775670523</v>
       </c>
       <c r="E83">
-        <v>7.906357730287605</v>
+        <v>9.994404369247615</v>
       </c>
       <c r="F83">
-        <v>9.060837736462418</v>
+        <v>3.717528527870959</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>2.546287251834619</v>
+        <v>12.69332992446697</v>
       </c>
       <c r="C84">
-        <v>8.160830755764332</v>
+        <v>9.016314367503162</v>
       </c>
       <c r="D84">
-        <v>2.991353910455134</v>
+        <v>6.692411754185552</v>
       </c>
       <c r="E84">
-        <v>7.924832620422651</v>
+        <v>10.02589311999114</v>
       </c>
       <c r="F84">
-        <v>9.062691942829973</v>
+        <v>3.674542488857163</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2.548260169615908</v>
+        <v>12.70849481038876</v>
       </c>
       <c r="C85">
-        <v>8.15551921652237</v>
+        <v>8.997869237341565</v>
       </c>
       <c r="D85">
-        <v>2.949952764256141</v>
+        <v>6.708396798546517</v>
       </c>
       <c r="E85">
-        <v>7.937100822456871</v>
+        <v>10.04980058360972</v>
       </c>
       <c r="F85">
-        <v>9.060527876690637</v>
+        <v>3.630156539574257</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>2.548768241511951</v>
+        <v>12.71803847264875</v>
       </c>
       <c r="C86">
-        <v>8.143140111508142</v>
+        <v>8.971725972421897</v>
       </c>
       <c r="D86">
-        <v>2.907442321483431</v>
+        <v>6.720127255624373</v>
       </c>
       <c r="E86">
-        <v>7.944031564726673</v>
+        <v>10.06703055530309</v>
       </c>
       <c r="F86">
-        <v>9.054590164957313</v>
+        <v>3.584437324401398</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>2.548027676076086</v>
+        <v>12.72275638966289</v>
       </c>
       <c r="C87">
-        <v>8.124875116858455</v>
+        <v>8.939023105180057</v>
       </c>
       <c r="D87">
-        <v>2.863869739384416</v>
+        <v>6.728263481063756</v>
       </c>
       <c r="E87">
-        <v>7.946511736171066</v>
+        <v>10.0785463233756</v>
       </c>
       <c r="F87">
-        <v>9.045147986901879</v>
+        <v>3.537449336653221</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>2.546252962894685</v>
+        <v>12.72337930700175</v>
       </c>
       <c r="C88">
-        <v>8.101845643876759</v>
+        <v>8.900848409416248</v>
       </c>
       <c r="D88">
-        <v>2.819280783545411</v>
+        <v>6.73344642930445</v>
       </c>
       <c r="E88">
-        <v>7.945370560977149</v>
+        <v>10.08528612918627</v>
       </c>
       <c r="F88">
-        <v>9.032485253261779</v>
+        <v>3.489254806538047</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>2.543641011035426</v>
+        <v>12.72055941302501</v>
       </c>
       <c r="C89">
-        <v>8.075043550148793</v>
+        <v>8.858187257955512</v>
       </c>
       <c r="D89">
-        <v>2.773719794983881</v>
+        <v>6.736254961589045</v>
       </c>
       <c r="E89">
-        <v>7.941337448720372</v>
+        <v>10.0881077884433</v>
       </c>
       <c r="F89">
-        <v>9.01689105965438</v>
+        <v>3.439913640575853</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>2.540362954684173</v>
+        <v>12.71486586345051</v>
       </c>
       <c r="C90">
-        <v>8.04530365364225</v>
+        <v>8.811898091193436</v>
       </c>
       <c r="D90">
-        <v>2.727229690504631</v>
+        <v>6.737185513881247</v>
       </c>
       <c r="E90">
-        <v>7.935026383758589</v>
+        <v>10.08776042662068</v>
       </c>
       <c r="F90">
-        <v>8.998651259925149</v>
+        <v>3.389483411653798</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>2.536561809005187</v>
+        <v>12.70678679367524</v>
       </c>
       <c r="C91">
-        <v>8.013304406406942</v>
+        <v>8.762707576209033</v>
       </c>
       <c r="D91">
-        <v>2.679851983625861</v>
+        <v>6.736648228391352</v>
       </c>
       <c r="E91">
-        <v>7.926938229752441</v>
+        <v>10.08487667781094</v>
       </c>
       <c r="F91">
-        <v>8.978041593112607</v>
+        <v>3.338019384629743</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>2.532353791163442</v>
+        <v>12.69673530370507</v>
       </c>
       <c r="C92">
-        <v>7.979583830641998</v>
+        <v>8.71121801604756</v>
       </c>
       <c r="D92">
-        <v>2.631626815665342</v>
+        <v>6.734973000157904</v>
       </c>
       <c r="E92">
-        <v>7.917472699687123</v>
+        <v>10.07997789980349</v>
       </c>
       <c r="F92">
-        <v>8.955322589206693</v>
+        <v>3.285574562350087</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>2.527831494796259</v>
+        <v>12.68505749233418</v>
       </c>
       <c r="C93">
-        <v>7.944561483022695</v>
+        <v>8.657921086759165</v>
       </c>
       <c r="D93">
-        <v>2.582592997321293</v>
+        <v>6.732420203158311</v>
       </c>
       <c r="E93">
-        <v>7.906943858144778</v>
+        <v>10.07348624533862</v>
       </c>
       <c r="F93">
-        <v>8.930736206569577</v>
+        <v>3.232199741994918</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2.523067687232134</v>
+        <v>12.67204114044791</v>
       </c>
       <c r="C94">
-        <v>7.908560882347566</v>
+        <v>8.603213834029605</v>
       </c>
       <c r="D94">
-        <v>2.532788063685544</v>
+        <v>6.729192663212064</v>
       </c>
       <c r="E94">
-        <v>7.895595942221578</v>
+        <v>10.065739298017</v>
       </c>
       <c r="F94">
-        <v>8.904503972649744</v>
+        <v>3.17794358857807</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>2.518119024461341</v>
+        <v>12.65792423722188</v>
       </c>
       <c r="C95">
-        <v>7.871829850117249</v>
+        <v>8.547414520208788</v>
       </c>
       <c r="D95">
-        <v>2.482248335659376</v>
+        <v>6.725447037722348</v>
       </c>
       <c r="E95">
-        <v>7.883617649735045</v>
+        <v>10.05700468695955</v>
       </c>
       <c r="F95">
-        <v>8.87682638243265</v>
+        <v>3.122852718066778</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2.51302939250784</v>
+        <v>12.64290291665868</v>
       </c>
       <c r="C96">
-        <v>7.834557567009768</v>
+        <v>8.490777089861931</v>
       </c>
       <c r="D96">
-        <v>2.431008986201669</v>
+        <v>6.721303688928375</v>
       </c>
       <c r="E96">
-        <v>7.871154197516791</v>
+        <v>10.04749344966762</v>
       </c>
       <c r="F96">
-        <v>8.847883199624331</v>
+        <v>3.066971786994797</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>2.507832685091069</v>
+        <v>12.62713841894342</v>
       </c>
       <c r="C97">
-        <v>7.796888062015144</v>
+        <v>8.433503550599006</v>
       </c>
       <c r="D97">
-        <v>2.379104110333226</v>
+        <v>6.716854827463817</v>
       </c>
       <c r="E97">
-        <v>7.858317141724052</v>
+        <v>10.03737141447686</v>
       </c>
       <c r="F97">
-        <v>8.817834420646891</v>
+        <v>3.010343585384554</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>2.502555009180819</v>
+        <v>12.61076310563304</v>
       </c>
       <c r="C98">
-        <v>7.758930936002123</v>
+        <v>8.375754418109011</v>
       </c>
       <c r="D98">
-        <v>2.326566799002824</v>
+        <v>6.712170965386454</v>
       </c>
       <c r="E98">
-        <v>7.845192152543649</v>
+        <v>10.02676862927561</v>
       </c>
       <c r="F98">
-        <v>8.786821619084581</v>
+        <v>2.953009132107398</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2.497216475279498</v>
+        <v>12.59388558986583</v>
       </c>
       <c r="C99">
-        <v>7.720769819160639</v>
+        <v>8.317657177165609</v>
       </c>
       <c r="D99">
-        <v>2.273429216558096</v>
+        <v>6.707306034038075</v>
       </c>
       <c r="E99">
-        <v>7.831845076359575</v>
+        <v>10.0157870555716</v>
       </c>
       <c r="F99">
-        <v>8.754969528149825</v>
+        <v>2.895007772190398</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>2.491832584215754</v>
+        <v>12.57659501793202</v>
       </c>
       <c r="C100">
-        <v>7.68246860375333</v>
+        <v>8.25931317168782</v>
       </c>
       <c r="D100">
-        <v>2.21972268252701</v>
+        <v>6.702301364827497</v>
       </c>
       <c r="E100">
-        <v>7.818326594752436</v>
+        <v>10.00450664126202</v>
       </c>
       <c r="F100">
-        <v>8.722387684812292</v>
+        <v>2.836377275257605</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>2.486415314790707</v>
+        <v>12.55896460878655</v>
       </c>
       <c r="C101">
-        <v>7.644076214251288</v>
+        <v>8.200803080220867</v>
       </c>
       <c r="D101">
-        <v>2.165477752543012</v>
+        <v>6.69718866091885</v>
       </c>
       <c r="E101">
-        <v>7.8046758039028</v>
+        <v>9.992990179537932</v>
       </c>
       <c r="F101">
-        <v>8.689172057126282</v>
+        <v>2.777153934066239</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>2.480973938359083</v>
+        <v>12.54105457603276</v>
       </c>
       <c r="C102">
-        <v>7.605630240640313</v>
+        <v>8.142191279358659</v>
       </c>
       <c r="D102">
-        <v>2.110724307314106</v>
+        <v>6.691992289360595</v>
       </c>
       <c r="E102">
-        <v>7.790922939436649</v>
+        <v>9.981287039543712</v>
       </c>
       <c r="F102">
-        <v>8.655406604785052</v>
+        <v>2.717372662101067</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>2.475515643393101</v>
+        <v>12.52291451361688</v>
       </c>
       <c r="C103">
-        <v>7.567159690239202</v>
+        <v>8.08352924529126</v>
       </c>
       <c r="D103">
-        <v>2.055491638807194</v>
+        <v>6.686731049210175</v>
       </c>
       <c r="E103">
-        <v>7.777091449361166</v>
+        <v>9.969436128001117</v>
       </c>
       <c r="F103">
-        <v>8.621164729966273</v>
+        <v>2.657067091631179</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>2.470046018576676</v>
+        <v>12.50458533795235</v>
       </c>
       <c r="C104">
-        <v>7.528687020163805</v>
+        <v>8.024858257615094</v>
       </c>
       <c r="D104">
-        <v>1.999808547268328</v>
+        <v>6.681419474072789</v>
       </c>
       <c r="E104">
-        <v>7.763199556435191</v>
+        <v>9.95746817865388</v>
       </c>
       <c r="F104">
-        <v>8.58651058655393</v>
+        <v>2.596269672305648</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>2.464569424143829</v>
+        <v>12.48610087034676</v>
       </c>
       <c r="C105">
-        <v>7.490229682935539</v>
+        <v>7.966211535537068</v>
       </c>
       <c r="D105">
-        <v>1.94370344602167</v>
+        <v>6.676068830417368</v>
       </c>
       <c r="E105">
-        <v>7.749261498463143</v>
+        <v>9.945407518371484</v>
       </c>
       <c r="F105">
-        <v>8.551500263124002</v>
+        <v>2.535011767957196</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>2.459089271722657</v>
+        <v>12.46748913177703</v>
       </c>
       <c r="C106">
-        <v>7.451801318364779</v>
+        <v>7.907615904185493</v>
       </c>
       <c r="D106">
-        <v>1.887204457509155</v>
+        <v>6.670687888158033</v>
       </c>
       <c r="E106">
-        <v>7.735288446925098</v>
+        <v>9.933273464801411</v>
       </c>
       <c r="F106">
-        <v>8.516182803908046</v>
+        <v>2.473323754812211</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>2.453608236296566</v>
+        <v>12.44877338817266</v>
       </c>
       <c r="C107">
-        <v>7.413412630258732</v>
+        <v>7.849093104565545</v>
       </c>
       <c r="D107">
-        <v>1.830339533962484</v>
+        <v>6.665283491036214</v>
       </c>
       <c r="E107">
-        <v>7.721289164546114</v>
+        <v>9.921081389694782</v>
       </c>
       <c r="F107">
-        <v>8.480601131212593</v>
+        <v>2.411235119107996</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>2.448128421653055</v>
+        <v>12.42997300065987</v>
       </c>
       <c r="C108">
-        <v>7.37507206177702</v>
+        <v>7.790660827651828</v>
       </c>
       <c r="D108">
-        <v>1.77313658077425</v>
+        <v>6.659860996118389</v>
       </c>
       <c r="E108">
-        <v>7.707270538746549</v>
+        <v>9.908843563483691</v>
       </c>
       <c r="F108">
-        <v>8.444792853638996</v>
+        <v>2.348774556334264</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>2.442651487518723</v>
+        <v>12.41110411777594</v>
       </c>
       <c r="C109">
-        <v>7.336786309667771</v>
+        <v>7.732333542409947</v>
       </c>
       <c r="D109">
-        <v>1.715623576971352</v>
+        <v>6.654424612585403</v>
       </c>
       <c r="E109">
-        <v>7.693238015306745</v>
+        <v>9.89656979626931</v>
       </c>
       <c r="F109">
-        <v>8.40879096650329</v>
+        <v>2.285970070640829</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>2.437178747009023</v>
+        <v>12.39218024395674</v>
       </c>
       <c r="C110">
-        <v>7.298560719816861</v>
+        <v>7.674123133645674</v>
       </c>
       <c r="D110">
-        <v>1.657828732932252</v>
+        <v>6.648977652642841</v>
       </c>
       <c r="E110">
-        <v>7.679195925051363</v>
+        <v>9.8842679595218</v>
       </c>
       <c r="F110">
-        <v>8.372624458060642</v>
+        <v>2.222849081228894</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>2.431711241376058</v>
+        <v>12.3732126918682</v>
       </c>
       <c r="C111">
-        <v>7.260399577435281</v>
+        <v>7.616039415592826</v>
       </c>
       <c r="D111">
-        <v>1.599780658475079</v>
+        <v>6.643522733165438</v>
       </c>
       <c r="E111">
-        <v>7.665147716792521</v>
+        <v>9.871944407337329</v>
       </c>
       <c r="F111">
-        <v>8.336318834376621</v>
+        <v>2.159438524902559</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>2.426249799065164</v>
+        <v>12.35421096294739</v>
       </c>
       <c r="C112">
-        <v>7.222306348620205</v>
+        <v>7.558090536124078</v>
       </c>
       <c r="D112">
-        <v>1.541508516432444</v>
+        <v>6.638061936839853</v>
       </c>
       <c r="E112">
-        <v>7.651096141122306</v>
+        <v>9.859604275023587</v>
       </c>
       <c r="F112">
-        <v>8.299896573863954</v>
+        <v>2.095764968843353</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>2.420795079704858</v>
+        <v>12.33518306723491</v>
       </c>
       <c r="C113">
-        <v>7.184283868603347</v>
+        <v>7.500283298339508</v>
       </c>
       <c r="D113">
-        <v>1.483042256271096</v>
+        <v>6.63259692526814</v>
       </c>
       <c r="E113">
-        <v>7.637043396291052</v>
+        <v>9.84725170895072</v>
       </c>
       <c r="F113">
-        <v>8.263377520489907</v>
+        <v>2.031854730616673</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>2.415347609658367</v>
+        <v>12.31613577369526</v>
       </c>
       <c r="C114">
-        <v>7.14633447210294</v>
+        <v>7.442623421108643</v>
       </c>
       <c r="D114">
-        <v>1.424412853270266</v>
+        <v>6.627129023713647</v>
       </c>
       <c r="E114">
-        <v>7.622991251459349</v>
+        <v>9.834890062592512</v>
       </c>
       <c r="F114">
-        <v>8.226779223750823</v>
+        <v>1.967733992008296</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>2.409907808685569</v>
+        <v>12.29707482731214</v>
       </c>
       <c r="C115">
-        <v>7.108460094286501</v>
+        <v>7.38511577351515</v>
       </c>
       <c r="D115">
-        <v>1.365652526099132</v>
+        <v>6.621659287649636</v>
       </c>
       <c r="E115">
-        <v>7.608941130681522</v>
+        <v>9.82252206186514</v>
       </c>
       <c r="F115">
-        <v>8.190117235644038</v>
+        <v>1.903428939906581</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>2.40447602048889</v>
+        <v>12.27800508670611</v>
       </c>
       <c r="C116">
-        <v>7.070662348684336</v>
+        <v>7.32776451641264</v>
       </c>
       <c r="D116">
-        <v>1.306795107948879</v>
+        <v>6.616188560114442</v>
       </c>
       <c r="E116">
-        <v>7.594894201507474</v>
+        <v>9.810149934345041</v>
       </c>
       <c r="F116">
-        <v>8.153405358967104</v>
+        <v>1.838965914028759</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>2.399052519632291</v>
+        <v>12.25893066856084</v>
       </c>
       <c r="C117">
-        <v>7.032942595412973</v>
+        <v>7.270573216307141</v>
       </c>
       <c r="D117">
-        <v>1.247876416168151</v>
+        <v>6.610717519944592</v>
       </c>
       <c r="E117">
-        <v>7.580851419975889</v>
+        <v>9.797775505526769</v>
       </c>
       <c r="F117">
-        <v>8.116655869094776</v>
+        <v>1.77437154290066</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>2.393637525596323</v>
+        <v>12.23985508327147</v>
       </c>
       <c r="C118">
-        <v>6.995301997274691</v>
+        <v>7.213544964259046</v>
       </c>
       <c r="D118">
-        <v>1.188934553025776</v>
+        <v>6.605246718231993</v>
       </c>
       <c r="E118">
-        <v>7.566813549552054</v>
+        <v>9.785400272241025</v>
       </c>
       <c r="F118">
-        <v>8.079879703951669</v>
+        <v>1.709672941165423</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>2.388231214942845</v>
+        <v>12.22078133152052</v>
       </c>
       <c r="C119">
-        <v>6.957741565011572</v>
+        <v>7.156682467707633</v>
       </c>
       <c r="D119">
-        <v>1.130010606793181</v>
+        <v>6.5997766019822</v>
       </c>
       <c r="E119">
-        <v>7.552781215444209</v>
+        <v>9.773025462867668</v>
       </c>
       <c r="F119">
-        <v>8.043086628666128</v>
+        <v>1.644897905757291</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>2.382833729402002</v>
+        <v>12.20171198349615</v>
       </c>
       <c r="C120">
-        <v>6.920262184978204</v>
+        <v>7.099988122152776</v>
       </c>
       <c r="D120">
-        <v>1.071149188277565</v>
+        <v>6.594307533360743</v>
       </c>
       <c r="E120">
-        <v>7.538754928921771</v>
+        <v>9.760652088311192</v>
       </c>
       <c r="F120">
-        <v>8.006285378351206</v>
+        <v>1.580075094973986</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>2.377445182785082</v>
+        <v>12.1826492499083</v>
       </c>
       <c r="C121">
-        <v>6.882864642338534</v>
+        <v>7.043464073432661</v>
       </c>
       <c r="D121">
-        <v>1.012399164208893</v>
+        <v>6.588839806024788</v>
       </c>
       <c r="E121">
-        <v>7.524735109553717</v>
+        <v>9.74828097579336</v>
       </c>
       <c r="F121">
-        <v>7.969483782064105</v>
+        <v>1.515234331811458</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2.372065667601661</v>
+        <v>12.16359502522541</v>
       </c>
       <c r="C122">
-        <v>6.845549640202299</v>
+        <v>6.987112257799043</v>
       </c>
       <c r="D122">
-        <v>0.9538145491947571</v>
+        <v>6.583373656918722</v>
       </c>
       <c r="E122">
-        <v>7.510722107129542</v>
+        <v>9.735912823310269</v>
       </c>
       <c r="F122">
-        <v>7.93268887058628</v>
+        <v>1.450406876115054</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2.366695258494119</v>
+        <v>12.14455093986331</v>
       </c>
       <c r="C123">
-        <v>6.808317812827057</v>
+        <v>6.93093443641078</v>
       </c>
       <c r="D123">
-        <v>0.8954556193873819</v>
+        <v>6.577909283399499</v>
       </c>
       <c r="E123">
-        <v>7.496716212396094</v>
+        <v>9.723548192384724</v>
       </c>
       <c r="F123">
-        <v>7.895906970104691</v>
+        <v>1.385625707757447</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>2.361334016447513</v>
+        <v>12.12551840026277</v>
       </c>
       <c r="C124">
-        <v>6.771169747885311</v>
+        <v>6.874932227349384</v>
       </c>
       <c r="D124">
-        <v>0.8373902950289634</v>
+        <v>6.572446842457408</v>
       </c>
       <c r="E124">
-        <v>7.482717672287641</v>
+        <v>9.711187583158477</v>
       </c>
       <c r="F124">
-        <v>7.859143784594453</v>
+        <v>1.320926008215159</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>2.355981989529592</v>
+        <v>12.10649861398764</v>
       </c>
       <c r="C125">
-        <v>6.734105979318096</v>
+        <v>6.819107128498563</v>
       </c>
       <c r="D125">
-        <v>0.7796957710959516</v>
+        <v>6.566986472934325</v>
       </c>
       <c r="E125">
-        <v>7.468726689636029</v>
+        <v>9.698831388011811</v>
       </c>
       <c r="F125">
-        <v>7.822404467120148</v>
+        <v>1.256345500255857</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>2.3506392159848</v>
+        <v>12.08749264395673</v>
       </c>
       <c r="C126">
-        <v>6.69712702947314</v>
+        <v>6.763460549997332</v>
       </c>
       <c r="D126">
-        <v>0.722460789455064</v>
+        <v>6.561528281692661</v>
       </c>
       <c r="E126">
-        <v>7.454743435268051</v>
+        <v>9.686479953839338</v>
       </c>
       <c r="F126">
-        <v>7.785693677637311</v>
+        <v>1.191925141415646</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>2.345305725539073</v>
+        <v>12.06850138605913</v>
       </c>
       <c r="C127">
-        <v>6.660233368387608</v>
+        <v>6.70799381574797</v>
       </c>
       <c r="D127">
-        <v>0.6657882137968392</v>
+        <v>6.55607236374357</v>
       </c>
       <c r="E127">
-        <v>7.440768051996475</v>
+        <v>9.674133561309938</v>
       </c>
       <c r="F127">
-        <v>7.749015648188385</v>
+        <v>1.12770972726357</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>2.339981542707288</v>
+        <v>12.04952566456847</v>
       </c>
       <c r="C128">
-        <v>6.623425470845546</v>
+        <v>6.652708200867682</v>
       </c>
       <c r="D128">
-        <v>0.6097983502959967</v>
+        <v>6.55061879325922</v>
       </c>
       <c r="E128">
-        <v>7.426800663617259</v>
+        <v>9.661792441966806</v>
       </c>
       <c r="F128">
-        <v>7.712374210864894</v>
+        <v>1.063748663680178</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>2.334666684451804</v>
+        <v>12.03056614994208</v>
       </c>
       <c r="C129">
-        <v>6.586703767568947</v>
+        <v>6.597604917123649</v>
       </c>
       <c r="D129">
-        <v>0.554633236958932</v>
+        <v>6.545167631777018</v>
       </c>
       <c r="E129">
-        <v>7.412841372692341</v>
+        <v>9.649456794950547</v>
       </c>
       <c r="F129">
-        <v>7.675772887011374</v>
+        <v>1.000096941630483</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>2.329361166628419</v>
+        <v>12.01162347596796</v>
       </c>
       <c r="C130">
-        <v>6.550068691771399</v>
+        <v>6.542685139177141</v>
       </c>
       <c r="D130">
-        <v>0.5004619926692176</v>
+        <v>6.539718930528418</v>
       </c>
       <c r="E130">
-        <v>7.398890271731864</v>
+        <v>9.637126783598069</v>
       </c>
       <c r="F130">
-        <v>7.639214860278953</v>
+        <v>0.936816343422504</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>2.324064999680774</v>
+        <v>11.99269815191046</v>
       </c>
       <c r="C131">
-        <v>6.513520650627244</v>
+        <v>6.487950003893266</v>
       </c>
       <c r="D131">
-        <v>0.4474874781395981</v>
+        <v>6.534272730935302</v>
       </c>
       <c r="E131">
-        <v>7.384947442053418</v>
+        <v>9.62480254912521</v>
       </c>
       <c r="F131">
-        <v>7.602703068433316</v>
+        <v>0.8739769111313445</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>2.318778191229165</v>
+        <v>11.97379065229219</v>
       </c>
       <c r="C132">
-        <v>6.477060047399722</v>
+        <v>6.433400613992228</v>
       </c>
       <c r="D132">
-        <v>0.3959544399753774</v>
+        <v>6.528829068490247</v>
       </c>
       <c r="E132">
-        <v>7.371012949579296</v>
+        <v>9.61248421196796</v>
       </c>
       <c r="F132">
-        <v>7.566240183800974</v>
+        <v>0.8116587689447989</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>2.313500748357586</v>
+        <v>11.95490137007948</v>
       </c>
       <c r="C133">
-        <v>6.440687274420257</v>
+        <v>6.379038054374792</v>
       </c>
       <c r="D133">
-        <v>0.3461593479724588</v>
+        <v>6.523387972428352</v>
       </c>
       <c r="E133">
-        <v>7.35708686241718</v>
+        <v>9.600171876412636</v>
       </c>
       <c r="F133">
-        <v>7.529828662044452</v>
+        <v>0.7499545197645908</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>2.308232672504205</v>
+        <v>11.936030659947</v>
       </c>
       <c r="C134">
-        <v>6.40440271859399</v>
+        <v>6.324863386890157</v>
       </c>
       <c r="D134">
-        <v>0.2984609165550913</v>
+        <v>6.517949468915434</v>
       </c>
       <c r="E134">
-        <v>7.343169228246977</v>
+        <v>9.587865632881888</v>
       </c>
       <c r="F134">
-        <v>7.493470765445933</v>
+        <v>0.6889720363111104</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>2.302973966756785</v>
+        <v>11.91717882828709</v>
       </c>
       <c r="C135">
-        <v>6.368206761679604</v>
+        <v>6.270877662550912</v>
       </c>
       <c r="D135">
-        <v>0.2532898705678379</v>
+        <v>6.51251357879126</v>
       </c>
       <c r="E135">
-        <v>7.329260100474802</v>
+        <v>9.575565556412618</v>
       </c>
       <c r="F135">
-        <v>7.45716857256684</v>
+        <v>0.6288381091044448</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>2.2977246297704</v>
+        <v>11.89834614697722</v>
       </c>
       <c r="C136">
-        <v>6.332099781704877</v>
+        <v>6.217081919454578</v>
       </c>
       <c r="D136">
-        <v>0.2111539628111408</v>
+        <v>6.507080321032753</v>
       </c>
       <c r="E136">
-        <v>7.315359518210455</v>
+        <v>9.563271714693656</v>
       </c>
       <c r="F136">
-        <v>7.420924009585551</v>
+        <v>0.5697030574290698</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>2.292484660583744</v>
+        <v>11.87953285539646</v>
       </c>
       <c r="C137">
-        <v>6.296082152712468</v>
+        <v>6.163477190727596</v>
       </c>
       <c r="D137">
-        <v>0.1726291452586108</v>
+        <v>6.501649710560548</v>
       </c>
       <c r="E137">
-        <v>7.301467521441196</v>
+        <v>9.550984163099701</v>
       </c>
       <c r="F137">
-        <v>7.384738857202464</v>
+        <v>0.5117465590140936</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>2.287254056489702</v>
+        <v>11.8607391654302</v>
       </c>
       <c r="C138">
-        <v>6.260154246082893</v>
+        <v>6.110064500779722</v>
       </c>
       <c r="D138">
-        <v>0.1383241391678597</v>
+        <v>6.49622176045893</v>
       </c>
       <c r="E138">
-        <v>7.287584144391516</v>
+        <v>9.53870295071631</v>
       </c>
       <c r="F138">
-        <v>7.348614767765222</v>
+        <v>0.4551848176754394</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>2.282032814232697</v>
+        <v>11.84196526369096</v>
       </c>
       <c r="C139">
-        <v>6.224316430143287</v>
+        <v>6.056844871708013</v>
       </c>
       <c r="D139">
-        <v>0.1088015954941898</v>
+        <v>6.490796481449631</v>
       </c>
       <c r="E139">
-        <v>7.273709419518157</v>
+        <v>9.526428120000331</v>
       </c>
       <c r="F139">
-        <v>7.312553280653143</v>
+        <v>0.4002795771623222</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>2.276820929686581</v>
+        <v>11.82321131450963</v>
       </c>
       <c r="C140">
-        <v>6.188569071099227</v>
+        <v>6.003819321344738</v>
       </c>
       <c r="D140">
-        <v>0.08444938935556967</v>
+        <v>6.485373882739005</v>
       </c>
       <c r="E140">
-        <v>7.259843376368633</v>
+        <v>9.514159707386154</v>
       </c>
       <c r="F140">
-        <v>7.276555824009268</v>
+        <v>0.3473484553824635</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>2.271618398577633</v>
+        <v>11.80447746267117</v>
       </c>
       <c r="C141">
-        <v>6.152912533179163</v>
+        <v>5.950988866035028</v>
       </c>
       <c r="D141">
-        <v>0.06533145076624755</v>
+        <v>6.479953972152798</v>
       </c>
       <c r="E141">
-        <v>7.245986043822774</v>
+        <v>9.501897745687572</v>
       </c>
       <c r="F141">
-        <v>7.24062373587565</v>
+        <v>0.296776133762271</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>2.266425215843103</v>
+        <v>11.78576383486796</v>
       </c>
       <c r="C142">
-        <v>6.117347179272943</v>
+        <v>5.898354521932564</v>
       </c>
       <c r="D142">
-        <v>0.05109531786362435</v>
+        <v>6.474536756127974</v>
       </c>
       <c r="E142">
-        <v>7.232137448363122</v>
+        <v>9.489642266754876</v>
       </c>
       <c r="F142">
-        <v>7.204758263075535</v>
+        <v>0.2490244684939891</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>2.261241376162986</v>
+        <v>11.76707054325192</v>
       </c>
       <c r="C143">
-        <v>6.081873371089818</v>
+        <v>5.84591730527013</v>
       </c>
       <c r="D143">
-        <v>0.04101673624495994</v>
+        <v>6.469122240889728</v>
       </c>
       <c r="E143">
-        <v>7.218297615470746</v>
+        <v>9.477393290923693</v>
       </c>
       <c r="F143">
-        <v>7.168960575845395</v>
+        <v>0.2046364271598513</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>2.256066873972148</v>
+        <v>11.74839768576344</v>
       </c>
       <c r="C144">
-        <v>6.046491469391404</v>
+        <v>5.793678234235565</v>
       </c>
       <c r="D144">
-        <v>0.03417640004524819</v>
+        <v>6.463710431532829</v>
       </c>
       <c r="E144">
-        <v>7.204466569870235</v>
+        <v>9.465150846018965</v>
       </c>
       <c r="F144">
-        <v>7.133231772849169</v>
+        <v>0.1642239804120287</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>2.250901703015398</v>
+        <v>11.72974534976909</v>
       </c>
       <c r="C145">
-        <v>6.011201834538294</v>
+        <v>5.741638328612686</v>
       </c>
       <c r="D145">
-        <v>0.02966905499896062</v>
+        <v>6.458301331698166</v>
       </c>
       <c r="E145">
-        <v>7.190644334144991</v>
+        <v>9.452914955952817</v>
       </c>
       <c r="F145">
-        <v>7.097572882428489</v>
+        <v>0.1284255789359039</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>2.245745857115684</v>
+        <v>11.71111360889239</v>
       </c>
       <c r="C146">
-        <v>5.976004825794794</v>
+        <v>5.689798611014016</v>
       </c>
       <c r="D146">
-        <v>0.02674227680637056</v>
+        <v>6.452894946599914</v>
       </c>
       <c r="E146">
-        <v>7.176830931059458</v>
+        <v>9.440685633293176</v>
       </c>
       <c r="F146">
-        <v>7.06198488340071</v>
+        <v>0.097815073297758</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>2.240599329546695</v>
+        <v>11.69250253222485</v>
       </c>
       <c r="C147">
-        <v>5.940900802418562</v>
+        <v>5.638160106010958</v>
       </c>
       <c r="D147">
-        <v>0.0248398706714897</v>
+        <v>6.447491278995849</v>
       </c>
       <c r="E147">
-        <v>7.163026381708525</v>
+        <v>9.428462900991418</v>
       </c>
       <c r="F147">
-        <v>7.026468695159283</v>
+        <v>0.072759087811712</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>2.235462113495275</v>
+        <v>11.67391218203096</v>
       </c>
       <c r="C148">
-        <v>5.90589012263468</v>
+        <v>5.586723844436483</v>
       </c>
       <c r="D148">
-        <v>0.02358201860298903</v>
+        <v>6.442090331638188</v>
       </c>
       <c r="E148">
-        <v>7.149230706944118</v>
+        <v>9.416246775371858</v>
       </c>
       <c r="F148">
-        <v>6.991025183183181</v>
+        <v>0.05326067721757353</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>2.230334201965694</v>
+        <v>11.65534260154519</v>
       </c>
       <c r="C149">
-        <v>5.8709731445841</v>
+        <v>5.535490857006811</v>
       </c>
       <c r="D149">
-        <v>0.0227224686424019</v>
+        <v>6.436692108337931</v>
       </c>
       <c r="E149">
-        <v>7.13544392703951</v>
+        <v>9.404037267697174</v>
       </c>
       <c r="F149">
-        <v>6.955655191475543</v>
+        <v>0.03887757710185183</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>2.225215587777943</v>
+        <v>11.63679384359529</v>
       </c>
       <c r="C150">
-        <v>5.836150225761194</v>
+        <v>5.484462180578969</v>
       </c>
       <c r="D150">
-        <v>0.02210677046333051</v>
+        <v>6.431296610234447</v>
       </c>
       <c r="E150">
-        <v>7.121666061778972</v>
+        <v>9.391834393958964</v>
       </c>
       <c r="F150">
-        <v>6.92035948605773</v>
+        <v>0.0287920818003173</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>2.22010626364902</v>
+        <v>11.61826595322134</v>
       </c>
       <c r="C151">
-        <v>5.801421723409624</v>
+        <v>5.433638859187246</v>
       </c>
       <c r="D151">
-        <v>0.0216402186024844</v>
+        <v>6.425903839867479</v>
       </c>
       <c r="E151">
-        <v>7.10789713062939</v>
+        <v>9.379638165832903</v>
       </c>
       <c r="F151">
-        <v>6.88513882920284</v>
+        <v>0.02201253855185654</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>2.215006222229227</v>
+        <v>11.59975895346727</v>
       </c>
       <c r="C152">
-        <v>5.766787994436886</v>
+        <v>5.383021932797234</v>
       </c>
       <c r="D152">
-        <v>0.02126537945425573</v>
+        <v>6.420513799160783</v>
       </c>
       <c r="E152">
-        <v>7.094137152933647</v>
+        <v>9.367448594217421</v>
       </c>
       <c r="F152">
-        <v>6.84999393921653</v>
+        <v>0.01759043262352556</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>2.209915456019622</v>
+        <v>11.58127288332546</v>
       </c>
       <c r="C153">
-        <v>5.732249395465101</v>
+        <v>5.332612453749176</v>
       </c>
       <c r="D153">
-        <v>0.02094783389417791</v>
+        <v>6.415126489339535</v>
       </c>
       <c r="E153">
-        <v>7.080386147552126</v>
+        <v>9.355265689971981</v>
       </c>
       <c r="F153">
-        <v>6.814925485772691</v>
+        <v>0.01475325046275685</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>2.204833957476533</v>
+        <v>11.56280777254433</v>
       </c>
       <c r="C154">
-        <v>5.697806282778281</v>
+        <v>5.282411476287334</v>
       </c>
       <c r="D154">
-        <v>0.02066692358671608</v>
+        <v>6.409741911863008</v>
       </c>
       <c r="E154">
-        <v>7.066644133365594</v>
+        <v>9.343089463227496</v>
       </c>
       <c r="F154">
-        <v>6.779934131457615</v>
+        <v>0.01293775411384955</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>2.199761718974293</v>
+        <v>11.54436363503108</v>
       </c>
       <c r="C155">
-        <v>5.663459012417485</v>
+        <v>5.232420055404797</v>
       </c>
       <c r="D155">
-        <v>0.02041037213234627</v>
+        <v>6.404360067933215</v>
       </c>
       <c r="E155">
-        <v>7.052911128948801</v>
+        <v>9.33091992354902</v>
       </c>
       <c r="F155">
-        <v>6.745020496863968</v>
+        <v>0.01176275530894723</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>2.194698732768435</v>
+        <v>11.52594049487517</v>
       </c>
       <c r="C156">
-        <v>5.629207940316655</v>
+        <v>5.182639254585628</v>
       </c>
       <c r="D156">
-        <v>0.02017077122725178</v>
+        <v>6.398980958690601</v>
       </c>
       <c r="E156">
-        <v>7.039187152667841</v>
+        <v>9.318757080234462</v>
       </c>
       <c r="F156">
-        <v>6.710185182069444</v>
+        <v>0.01098244600273368</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>2.189644991094672</v>
+        <v>11.50753836898752</v>
       </c>
       <c r="C157">
-        <v>5.595053421785627</v>
+        <v>5.133070139701684</v>
       </c>
       <c r="D157">
-        <v>0.01994370273724957</v>
+        <v>6.393604585166528</v>
       </c>
       <c r="E157">
-        <v>7.025472222835501</v>
+        <v>9.306600941954287</v>
       </c>
       <c r="F157">
-        <v>6.675428766228412</v>
+        <v>0.01044312006097178</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>2.184600486085248</v>
+        <v>11.48915726740786</v>
       </c>
       <c r="C158">
-        <v>5.560995812020246</v>
+        <v>5.083713780479011</v>
       </c>
       <c r="D158">
-        <v>0.01972649411755809</v>
+        <v>6.388230948288558</v>
       </c>
       <c r="E158">
-        <v>7.011766357544534</v>
+        <v>9.294451517804241</v>
       </c>
       <c r="F158">
-        <v>6.640751802932717</v>
+        <v>0.01005055883156282</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>2.179565209831253</v>
+        <v>11.47079720209876</v>
       </c>
       <c r="C159">
-        <v>5.527035466106272</v>
+        <v>5.03457125159423</v>
       </c>
       <c r="D159">
-        <v>0.01951744951375846</v>
+        <v>6.382860048974908</v>
       </c>
       <c r="E159">
-        <v>6.998069574835561</v>
+        <v>9.282308816300368</v>
       </c>
       <c r="F159">
-        <v>6.606154831424165</v>
+        <v>0.00974768852344917</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>2.174539154378917</v>
+        <v>11.45245818144981</v>
       </c>
       <c r="C160">
-        <v>5.493172738267937</v>
+        <v>4.985643631362729</v>
       </c>
       <c r="D160">
-        <v>0.0193155168831352</v>
+        <v>6.37749188821217</v>
       </c>
       <c r="E160">
-        <v>6.984381892678964</v>
+        <v>9.27017284511534</v>
       </c>
       <c r="F160">
-        <v>6.571638369950732</v>
+        <v>0.00950018652906499</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>2.169522311719847</v>
+        <v>11.4341402114904</v>
       </c>
       <c r="C161">
-        <v>5.459407982729869</v>
+        <v>4.936932002351326</v>
       </c>
       <c r="D161">
-        <v>0.01912000996867363</v>
+        <v>6.372126466614051</v>
       </c>
       <c r="E161">
-        <v>6.970703328968483</v>
+        <v>9.25804361283112</v>
       </c>
       <c r="F161">
-        <v>6.53720292081563</v>
+        <v>0.009287495945225068</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>2.164514673811684</v>
+        <v>11.41584329729962</v>
       </c>
       <c r="C162">
-        <v>5.425741553337295</v>
+        <v>4.8884374511363</v>
       </c>
       <c r="D162">
-        <v>0.01893043100329616</v>
+        <v>6.366763785047175</v>
       </c>
       <c r="E162">
-        <v>6.957033901565724</v>
+        <v>9.245921127045936</v>
       </c>
       <c r="F162">
-        <v>6.502848974555725</v>
+        <v>0.009097322366607754</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>2.159516232580718</v>
+        <v>11.39756744229971</v>
       </c>
       <c r="C163">
-        <v>5.392173803182251</v>
+        <v>4.840161067393004</v>
       </c>
       <c r="D163">
-        <v>0.01874641319985965</v>
+        <v>6.361403844286475</v>
       </c>
       <c r="E163">
-        <v>6.943373628326113</v>
+        <v>9.233805395156281</v>
       </c>
       <c r="F163">
-        <v>6.468577000511889</v>
+        <v>0.008922306985520562</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>2.154526979907268</v>
+        <v>11.37931264765241</v>
       </c>
       <c r="C164">
-        <v>5.358705085181986</v>
+        <v>4.792103945330434</v>
       </c>
       <c r="D164">
-        <v>0.01856768103594234</v>
+        <v>6.356046644868941</v>
       </c>
       <c r="E164">
-        <v>6.929722527024456</v>
+        <v>9.221696424753292</v>
       </c>
       <c r="F164">
-        <v>6.434387461864849</v>
+        <v>0.008758019396533765</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>2.149546907648373</v>
+        <v>11.36107891493086</v>
       </c>
       <c r="C165">
-        <v>5.325335751687238</v>
+        <v>4.744267182193975</v>
       </c>
       <c r="D165">
-        <v>0.01839400325735255</v>
+        <v>6.350692187479956</v>
       </c>
       <c r="E165">
-        <v>6.916080615482223</v>
+        <v>9.20959422302227</v>
       </c>
       <c r="F165">
-        <v>6.400280806461975</v>
+        <v>0.008601795068603599</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>2.144576007625088</v>
+        <v>11.34286624408329</v>
       </c>
       <c r="C166">
-        <v>5.292066154462606</v>
+        <v>4.696651877849984</v>
       </c>
       <c r="D166">
-        <v>0.01822517408061979</v>
+        <v>6.345340472706945</v>
       </c>
       <c r="E166">
-        <v>6.902447911453939</v>
+        <v>9.197498797054957</v>
       </c>
       <c r="F166">
-        <v>6.366257468658866</v>
+        <v>0.008451936551718671</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>2.139614271622071</v>
+        <v>11.32467463228183</v>
       </c>
       <c r="C167">
-        <v>5.258896644795817</v>
+        <v>4.649259136229745</v>
       </c>
       <c r="D167">
-        <v>0.01806101087898168</v>
+        <v>6.339991501096671</v>
       </c>
       <c r="E167">
-        <v>6.888824432704727</v>
+        <v>9.18541015381212</v>
       </c>
       <c r="F167">
-        <v>6.332317875897889</v>
+        <v>0.008307455195873418</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>2.134661691400852</v>
+        <v>11.3065040782114</v>
       </c>
       <c r="C168">
-        <v>5.225827573370007</v>
+        <v>4.602090063287421</v>
       </c>
       <c r="D168">
-        <v>0.01790135373961809</v>
+        <v>6.334645273165783</v>
       </c>
       <c r="E168">
-        <v>6.875210196991134</v>
+        <v>9.17332830033925</v>
       </c>
       <c r="F168">
-        <v>6.298462441876562</v>
+        <v>0.008167715114146245</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>2.129718258688015</v>
+        <v>11.28835457877691</v>
       </c>
       <c r="C169">
-        <v>5.192859290218878</v>
+        <v>4.555145767617917</v>
       </c>
       <c r="D169">
-        <v>0.01774603653317118</v>
+        <v>6.329301789436088</v>
       </c>
       <c r="E169">
-        <v>6.861605222060268</v>
+        <v>9.161253243451378</v>
       </c>
       <c r="F169">
-        <v>6.264691573227006</v>
+        <v>0.008032233758219475</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>2.124783965185343</v>
+        <v>11.27022612878344</v>
       </c>
       <c r="C170">
-        <v>5.159992144774699</v>
+        <v>4.508427360570357</v>
       </c>
       <c r="D170">
-        <v>0.0175949126727806</v>
+        <v>6.323961050414027</v>
       </c>
       <c r="E170">
-        <v>6.848009525668825</v>
+        <v>9.149184989967727</v>
       </c>
       <c r="F170">
-        <v>6.231005667320993</v>
+        <v>0.007900695513513066</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>2.119858802570753</v>
+        <v>11.25211872390197</v>
       </c>
       <c r="C171">
-        <v>5.127226485750811</v>
+        <v>4.461935955003673</v>
       </c>
       <c r="D171">
-        <v>0.01744785020578977</v>
+        <v>6.318623056578396</v>
       </c>
       <c r="E171">
-        <v>6.834423125582666</v>
+        <v>9.137123546667866</v>
       </c>
       <c r="F171">
-        <v>6.197405112371839</v>
+        <v>0.007772878345996562</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>2.114942762492619</v>
+        <v>11.23403235851</v>
       </c>
       <c r="C172">
-        <v>5.094562661074971</v>
+        <v>4.415672666072687</v>
       </c>
       <c r="D172">
-        <v>0.01730472875760899</v>
+        <v>6.313287808401267</v>
       </c>
       <c r="E172">
-        <v>6.82084603957688</v>
+        <v>9.125068920356082</v>
       </c>
       <c r="F172">
-        <v>6.163890290475665</v>
+        <v>0.007648591701531642</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>2.11003583657531</v>
+        <v>11.21596702600222</v>
       </c>
       <c r="C173">
-        <v>5.062001017988749</v>
+        <v>4.369638610424515</v>
       </c>
       <c r="D173">
-        <v>0.01716540647638662</v>
+        <v>6.307955306360685</v>
       </c>
       <c r="E173">
-        <v>6.80727828544293</v>
+        <v>9.113021117708595</v>
       </c>
       <c r="F173">
-        <v>6.130461575200687</v>
+        <v>0.00752767040545474</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>2.105138016423376</v>
+        <v>11.19792271960666</v>
       </c>
       <c r="C174">
-        <v>5.029541902862573</v>
+        <v>4.323834905792217</v>
       </c>
       <c r="D174">
-        <v>0.01702975273618033</v>
+        <v>6.302625550929118</v>
       </c>
       <c r="E174">
-        <v>6.793719880993764</v>
+        <v>9.100980145360817</v>
       </c>
       <c r="F174">
-        <v>6.097119334056354</v>
+        <v>0.007409970297457534</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>2.100249293614988</v>
+        <v>11.17989943190228</v>
       </c>
       <c r="C175">
-        <v>4.997185661171271</v>
+        <v>4.278262671308194</v>
       </c>
       <c r="D175">
-        <v>0.01689766416944968</v>
+        <v>6.297298542528438</v>
       </c>
       <c r="E175">
-        <v>6.780170844050907</v>
+        <v>9.088946010034485</v>
       </c>
       <c r="F175">
-        <v>6.063863928653135</v>
+        <v>0.007295383319876829</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>2.095369659707794</v>
+        <v>11.16189715503045</v>
       </c>
       <c r="C176">
-        <v>4.964932637557861</v>
+        <v>4.232923026624638</v>
       </c>
       <c r="D176">
-        <v>0.01676902483964337</v>
+        <v>6.291974281622875</v>
       </c>
       <c r="E176">
-        <v>6.766631192468122</v>
+        <v>9.076918718262892</v>
       </c>
       <c r="F176">
-        <v>6.030695713015926</v>
+        <v>0.007183789404546529</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>2.090499106234255</v>
+        <v>11.14391588074078</v>
       </c>
       <c r="C177">
-        <v>4.932783175666213</v>
+        <v>4.187817091687861</v>
       </c>
       <c r="D177">
-        <v>0.0166437287566563</v>
+        <v>6.286652768648511</v>
       </c>
       <c r="E177">
-        <v>6.753100944099</v>
+        <v>9.064898276629302</v>
       </c>
       <c r="F177">
-        <v>5.997615037284206</v>
+        <v>0.007075074231499052</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>2.0856376247069</v>
+        <v>11.12595560038123</v>
       </c>
       <c r="C178">
-        <v>4.900737618142</v>
+        <v>4.142945986967936</v>
       </c>
       <c r="D178">
-        <v>0.01652167131771979</v>
+        <v>6.281334004016117</v>
       </c>
       <c r="E178">
-        <v>6.739580116839448</v>
+        <v>9.052884691685362</v>
       </c>
       <c r="F178">
-        <v>5.964622245197602</v>
+        <v>0.006969139508844262</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>2.080785206620177</v>
+        <v>11.10801630486331</v>
       </c>
       <c r="C179">
-        <v>4.868796306624294</v>
+        <v>4.098310832179923</v>
       </c>
       <c r="D179">
-        <v>0.01640275659062091</v>
+        <v>6.276017988150201</v>
       </c>
       <c r="E179">
-        <v>6.726068728610471</v>
+        <v>9.040877969944482</v>
       </c>
       <c r="F179">
-        <v>5.931717675290762</v>
+        <v>0.006865893254100312</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>2.075941843444306</v>
+        <v>11.09009798503907</v>
       </c>
       <c r="C180">
-        <v>4.836959581639119</v>
+        <v>4.053912746717818</v>
       </c>
       <c r="D180">
-        <v>0.01628689455114424</v>
+        <v>6.270704721461762</v>
       </c>
       <c r="E180">
-        <v>6.712566797336108</v>
+        <v>9.028878117893893</v>
       </c>
       <c r="F180">
-        <v>5.898901662045546</v>
+        <v>0.006765245750066898</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>2.071107526623669</v>
+        <v>11.0722006313135</v>
       </c>
       <c r="C181">
-        <v>4.805227782591405</v>
+        <v>4.00975284920196</v>
       </c>
       <c r="D181">
-        <v>0.01617399179173539</v>
+        <v>6.265394204354404</v>
       </c>
       <c r="E181">
-        <v>6.699074340978888</v>
+        <v>9.01688514200835</v>
       </c>
       <c r="F181">
-        <v>5.866174534248054</v>
+        <v>0.006667113888002658</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>2.066282247591006</v>
+        <v>11.05432423361864</v>
       </c>
       <c r="C182">
-        <v>4.773601247721672</v>
+        <v>3.965832256335545</v>
       </c>
       <c r="D182">
-        <v>0.01606396297653285</v>
+        <v>6.260086437223543</v>
       </c>
       <c r="E182">
-        <v>6.685591377543215</v>
+        <v>9.004899048775924</v>
       </c>
       <c r="F182">
-        <v>5.833536617217863</v>
+        <v>0.006571403811022987</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>2.061465997756044</v>
+        <v>11.03646878201871</v>
       </c>
       <c r="C183">
-        <v>4.742080314016797</v>
+        <v>3.92215208371654</v>
       </c>
       <c r="D183">
-        <v>0.01595672882651609</v>
+        <v>6.254781420470777</v>
       </c>
       <c r="E183">
-        <v>6.67211792504442</v>
+        <v>8.992919844645721</v>
       </c>
       <c r="F183">
-        <v>5.800988231494917</v>
+        <v>0.00647804123496545</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>2.056658768501671</v>
+        <v>11.01863426613842</v>
       </c>
       <c r="C184">
-        <v>4.710665317214475</v>
+        <v>3.878713444649124</v>
       </c>
       <c r="D184">
-        <v>0.01585220410348945</v>
+        <v>6.24947915448642</v>
       </c>
       <c r="E184">
-        <v>6.658654001509198</v>
+        <v>8.980947536069143</v>
       </c>
       <c r="F184">
-        <v>5.768529693316402</v>
+        <v>0.006386945520395453</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>2.051860551198148</v>
+        <v>11.0008206752423</v>
       </c>
       <c r="C185">
-        <v>4.679356591737517</v>
+        <v>3.835517449638623</v>
       </c>
       <c r="D185">
-        <v>0.01575030734553406</v>
+        <v>6.244179639659641</v>
       </c>
       <c r="E185">
-        <v>6.645199625026896</v>
+        <v>8.968982129494714</v>
       </c>
       <c r="F185">
-        <v>5.736161316169567</v>
+        <v>0.006298042200314847</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>2.047071337193755</v>
+        <v>10.98302799863328</v>
       </c>
       <c r="C186">
-        <v>4.64815447059288</v>
+        <v>3.792565206743148</v>
       </c>
       <c r="D186">
-        <v>0.01565095870394898</v>
+        <v>6.238882876376931</v>
       </c>
       <c r="E186">
-        <v>6.631754813704199</v>
+        <v>8.957023631374996</v>
       </c>
       <c r="F186">
-        <v>5.703883410046534</v>
+        <v>0.006211267941763914</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>2.042291117815723</v>
+        <v>10.96525622531286</v>
       </c>
       <c r="C187">
-        <v>4.617059285412418</v>
+        <v>3.749857820351814</v>
       </c>
       <c r="D187">
-        <v>0.01555408462847436</v>
+        <v>6.233588865024887</v>
       </c>
       <c r="E187">
-        <v>6.61831958565202</v>
+        <v>8.945072048129907</v>
       </c>
       <c r="F187">
-        <v>5.671696279613741</v>
+        <v>0.006126560266307458</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>2.037519884372684</v>
+        <v>10.94750534407143</v>
       </c>
       <c r="C188">
-        <v>4.586071366346578</v>
+        <v>3.707396391054271</v>
       </c>
       <c r="D188">
-        <v>0.01545962251258016</v>
+        <v>6.228297605985928</v>
       </c>
       <c r="E188">
-        <v>6.604893959039414</v>
+        <v>8.933127386193817</v>
       </c>
       <c r="F188">
-        <v>5.639600226793544</v>
+        <v>0.00604383615701041</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>2.032757628154167</v>
+        <v>10.92977534360717</v>
       </c>
       <c r="C189">
-        <v>4.555191041983276</v>
+        <v>3.665182015532031</v>
       </c>
       <c r="D189">
-        <v>0.01536750884667705</v>
+        <v>6.223009099635682</v>
       </c>
       <c r="E189">
-        <v>6.591477952056628</v>
+        <v>8.921189652001553</v>
       </c>
       <c r="F189">
-        <v>5.607595552314146</v>
+        <v>0.00596303535866224</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>2.028004340430373</v>
+        <v>10.91206621244723</v>
       </c>
       <c r="C190">
-        <v>4.524418639378408</v>
+        <v>3.623215785225182</v>
       </c>
       <c r="D190">
-        <v>0.01527767370201721</v>
+        <v>6.217723346354361</v>
       </c>
       <c r="E190">
-        <v>6.578071582916452</v>
+        <v>8.909258851956791</v>
       </c>
       <c r="F190">
-        <v>5.575682553593243</v>
+        <v>0.005884108332300344</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>2.023260012452584</v>
+        <v>10.89437793898754</v>
       </c>
       <c r="C191">
-        <v>4.493754483946288</v>
+        <v>3.581498786822266</v>
       </c>
       <c r="D191">
-        <v>0.01519005218966163</v>
+        <v>6.212440346514925</v>
       </c>
       <c r="E191">
-        <v>6.564674869867338</v>
+        <v>8.897334992480232</v>
       </c>
       <c r="F191">
-        <v>5.543861521133113</v>
+        <v>0.005806996379020507</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>2.018524635453486</v>
+        <v>10.8767105115231</v>
       </c>
       <c r="C192">
-        <v>4.463198899392821</v>
+        <v>3.540032101338672</v>
       </c>
       <c r="D192">
-        <v>0.01510458725213286</v>
+        <v>6.207160100487606</v>
       </c>
       <c r="E192">
-        <v>6.551287831187574</v>
+        <v>8.885418079981802</v>
       </c>
       <c r="F192">
-        <v>5.51213274541074</v>
+        <v>0.005731641005249322</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>2.013798200647055</v>
+        <v>10.85906391821653</v>
       </c>
       <c r="C193">
-        <v>4.432752207722808</v>
+        <v>3.4988168031399</v>
       </c>
       <c r="D193">
-        <v>0.01502122214597744</v>
+        <v>6.201882608641947</v>
       </c>
       <c r="E193">
-        <v>6.537910485185448</v>
+        <v>8.873508120868181</v>
       </c>
       <c r="F193">
-        <v>5.480496515266059</v>
+        <v>0.005657992430649491</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>2.009080699227904</v>
+        <v>10.84143814712314</v>
       </c>
       <c r="C194">
-        <v>4.402414729138207</v>
+        <v>3.457853960483792</v>
       </c>
       <c r="D194">
-        <v>0.01493990594666254</v>
+        <v>6.196607871345043</v>
       </c>
       <c r="E194">
-        <v>6.524542850200199</v>
+        <v>8.861605121541288</v>
       </c>
       <c r="F194">
-        <v>5.44895311639341</v>
+        <v>0.005585990913335536</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>2.004372122373439</v>
+        <v>10.82383318625447</v>
       </c>
       <c r="C195">
-        <v>4.372186781980371</v>
+        <v>3.417144634168129</v>
       </c>
       <c r="D195">
-        <v>0.01486057991196943</v>
+        <v>6.191335888960968</v>
       </c>
       <c r="E195">
-        <v>6.511184944602399</v>
+        <v>8.849709088404003</v>
       </c>
       <c r="F195">
-        <v>5.417502827693984</v>
+        <v>0.005515590969743067</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1.99967246124259</v>
+        <v>10.80624902348407</v>
       </c>
       <c r="C196">
-        <v>4.342068682718611</v>
+        <v>3.376689877024429</v>
       </c>
       <c r="D196">
-        <v>0.01478319661287652</v>
+        <v>6.186066661851847</v>
       </c>
       <c r="E196">
-        <v>6.497836786793613</v>
+        <v>8.837820027860166</v>
       </c>
       <c r="F196">
-        <v>5.386145929544042</v>
+        <v>0.005446739394865823</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.994981706974514</v>
+        <v>10.78868564659349</v>
       </c>
       <c r="C197">
-        <v>4.312060745852702</v>
+        <v>3.336490734055648</v>
       </c>
       <c r="D197">
-        <v>0.01470770793930837</v>
+        <v>6.180800190379806</v>
       </c>
       <c r="E197">
-        <v>6.484498395205349</v>
+        <v>8.82593794630928</v>
       </c>
       <c r="F197">
-        <v>5.354882699181185</v>
+        <v>0.005379396743779378</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.990299850691711</v>
+        <v>10.7711430433494</v>
       </c>
       <c r="C198">
-        <v>4.282163283862378</v>
+        <v>3.296548240997428</v>
       </c>
       <c r="D198">
-        <v>0.01463405621136478</v>
+        <v>6.175536474903622</v>
       </c>
       <c r="E198">
-        <v>6.471169788303078</v>
+        <v>8.814062850151569</v>
       </c>
       <c r="F198">
-        <v>5.323713411152491</v>
+        <v>0.005313519650623318</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.985626883498431</v>
+        <v>10.75362120139621</v>
       </c>
       <c r="C199">
-        <v>4.252376607183461</v>
+        <v>3.256863424296166</v>
       </c>
       <c r="D199">
-        <v>0.01456219331573718</v>
+        <v>6.170275515781034</v>
       </c>
       <c r="E199">
-        <v>6.457850984583566</v>
+        <v>8.802194745788405</v>
       </c>
       <c r="F199">
-        <v>5.292638335350958</v>
+        <v>0.00524906909558801</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.980962796480404</v>
+        <v>10.73612010830703</v>
       </c>
       <c r="C200">
-        <v>4.222701024108882</v>
+        <v>3.217437300639392</v>
       </c>
       <c r="D200">
-        <v>0.01449207182510055</v>
+        <v>6.165017313368249</v>
       </c>
       <c r="E200">
-        <v>6.444542002570081</v>
+        <v>8.790333639622466</v>
       </c>
       <c r="F200">
-        <v>5.261657741789748</v>
+        <v>0.00518599775857228</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.976307580705467</v>
+        <v>10.71863975163036</v>
       </c>
       <c r="C201">
-        <v>4.19313684074845</v>
+        <v>3.178270875550536</v>
       </c>
       <c r="D201">
-        <v>0.01442365088179062</v>
+        <v>6.159761868020459</v>
       </c>
       <c r="E201">
-        <v>6.431242860822895</v>
+        <v>8.778479538049959</v>
       </c>
       <c r="F201">
-        <v>5.230771897312147</v>
+        <v>0.005124264248563263</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.971661227224075</v>
+        <v>10.70118011883113</v>
       </c>
       <c r="C202">
-        <v>4.163684360991159</v>
+        <v>3.139365143911498</v>
       </c>
       <c r="D202">
-        <v>0.014356885574849</v>
+        <v>6.154509180090542</v>
       </c>
       <c r="E202">
-        <v>6.417953577932463</v>
+        <v>8.766632447474009</v>
       </c>
       <c r="F202">
-        <v>5.199981066374415</v>
+        <v>0.005063833076652128</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.967023727068782</v>
+        <v>10.68374119732165</v>
       </c>
       <c r="C203">
-        <v>4.134343886405834</v>
+        <v>3.100721088645241</v>
       </c>
       <c r="D203">
-        <v>0.01429174003179552</v>
+        <v>6.149259249929909</v>
       </c>
       <c r="E203">
-        <v>6.404674172518544</v>
+        <v>8.754792374295789</v>
       </c>
       <c r="F203">
-        <v>5.169285510411775</v>
+        <v>0.005004668057622959</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.962395071254485</v>
+        <v>10.66632297447876</v>
       </c>
       <c r="C204">
-        <v>4.10511571621246</v>
+        <v>3.062339679896914</v>
       </c>
       <c r="D204">
-        <v>0.01422818369825097</v>
+        <v>6.144012077889229</v>
       </c>
       <c r="E204">
-        <v>6.391404663233233</v>
+        <v>8.74295932491342</v>
       </c>
       <c r="F204">
-        <v>5.138685489535133</v>
+        <v>0.004946735407348562</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.957775250778618</v>
+        <v>10.64892543762488</v>
       </c>
       <c r="C205">
-        <v>4.076000147227156</v>
+        <v>3.024221875236337</v>
       </c>
       <c r="D205">
-        <v>0.01416617175373869</v>
+        <v>6.138767664316592</v>
       </c>
       <c r="E205">
-        <v>6.378145068760973</v>
+        <v>8.731133305728516</v>
       </c>
       <c r="F205">
-        <v>5.108181261349958</v>
+        <v>0.004889998082320464</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1.953164256621171</v>
+        <v>10.63154857404384</v>
       </c>
       <c r="C206">
-        <v>4.046997473766648</v>
+        <v>2.986368618240633</v>
       </c>
       <c r="D206">
-        <v>0.01410566203102344</v>
+        <v>6.133526009559163</v>
       </c>
       <c r="E206">
-        <v>6.364895407816982</v>
+        <v>8.719314323141928</v>
       </c>
       <c r="F206">
-        <v>5.077773081094801</v>
+        <v>0.004834421548738071</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1.948562079744913</v>
+        <v>10.61419237098895</v>
       </c>
       <c r="C207">
-        <v>4.018107987629335</v>
+        <v>2.948780838030811</v>
       </c>
       <c r="D207">
-        <v>0.01404661117177572</v>
+        <v>6.128287113962513</v>
       </c>
       <c r="E207">
-        <v>6.351655699147682</v>
+        <v>8.707502383554878</v>
       </c>
       <c r="F207">
-        <v>5.047461201264091</v>
+        <v>0.004779966555916388</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1.943968711095289</v>
+        <v>10.59685681566753</v>
       </c>
       <c r="C208">
-        <v>3.989331978022573</v>
+        <v>2.911459449047723</v>
       </c>
       <c r="D208">
-        <v>0.01398899462580228</v>
+        <v>6.123050977870851</v>
       </c>
       <c r="E208">
-        <v>6.338425961531362</v>
+        <v>8.695697493368744</v>
       </c>
       <c r="F208">
-        <v>5.017245873039643</v>
+        <v>0.004726604712839428</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.939384141600652</v>
+        <v>10.57954189525962</v>
       </c>
       <c r="C209">
-        <v>3.960669731472614</v>
+        <v>2.874405349611795</v>
       </c>
       <c r="D209">
-        <v>0.01393278169817438</v>
+        <v>6.117817601626751</v>
       </c>
       <c r="E209">
-        <v>6.325206213777664</v>
+        <v>8.683899658986428</v>
       </c>
       <c r="F209">
-        <v>4.98712734519822</v>
+        <v>0.004674310531581259</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1.93480836217222</v>
+        <v>10.56224759692516</v>
       </c>
       <c r="C210">
-        <v>3.932121531814014</v>
+        <v>2.837619421918428</v>
       </c>
       <c r="D210">
-        <v>0.01387793551626701</v>
+        <v>6.112586985571501</v>
       </c>
       <c r="E210">
-        <v>6.311996474728021</v>
+        <v>8.672108886811372</v>
       </c>
       <c r="F210">
-        <v>4.957105863995515</v>
+        <v>0.004623060839060561</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1.930241363704297</v>
+        <v>10.54497390777989</v>
       </c>
       <c r="C211">
-        <v>3.903687660098575</v>
+        <v>2.801102531174449</v>
       </c>
       <c r="D211">
-        <v>0.01382442468126751</v>
+        <v>6.107359130045229</v>
       </c>
       <c r="E211">
-        <v>6.298796763255119</v>
+        <v>8.6603251832477</v>
       </c>
       <c r="F211">
-        <v>4.927181673099572</v>
+        <v>0.004572832971749446</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1.925683137074351</v>
+        <v>10.52772081492073</v>
       </c>
       <c r="C212">
-        <v>3.875368394519506</v>
+        <v>2.764855524432202</v>
       </c>
       <c r="D212">
-        <v>0.01377222215792753</v>
+        <v>6.102134035386491</v>
       </c>
       <c r="E212">
-        <v>6.285607098263305</v>
+        <v>8.648548554700325</v>
       </c>
       <c r="F212">
-        <v>4.897355014914019</v>
+        <v>0.004523589681943427</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.921133673142965</v>
+        <v>10.51048830542953</v>
       </c>
       <c r="C213">
-        <v>3.847164010390755</v>
+        <v>2.728879230702269</v>
       </c>
       <c r="D213">
-        <v>0.01372129720216734</v>
+        <v>6.096911701932576</v>
       </c>
       <c r="E213">
-        <v>6.272427498688097</v>
+        <v>8.636779007575599</v>
       </c>
       <c r="F213">
-        <v>4.867626129385444</v>
+        <v>0.004475300768479414</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1.916592962753903</v>
+        <v>10.49327636635158</v>
       </c>
       <c r="C214">
-        <v>3.819074780056648</v>
+        <v>2.693174459674367</v>
       </c>
       <c r="D214">
-        <v>0.01367161992389748</v>
+        <v>6.091692130019479</v>
       </c>
       <c r="E214">
-        <v>6.25925798349683</v>
+        <v>8.62501654828073</v>
       </c>
       <c r="F214">
-        <v>4.837995253839092</v>
+        <v>0.004427942195852685</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1.912060996734467</v>
+        <v>10.47608498471775</v>
       </c>
       <c r="C215">
-        <v>3.791100972821035</v>
+        <v>2.657742000969204</v>
       </c>
       <c r="D215">
-        <v>0.01362316148937771</v>
+        <v>6.086475319981971</v>
       </c>
       <c r="E215">
-        <v>6.246098571688359</v>
+        <v>8.613261183222894</v>
       </c>
       <c r="F215">
-        <v>4.808462623340741</v>
+        <v>0.00438149220692454</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1.907537765895333</v>
+        <v>10.45891414754478</v>
       </c>
       <c r="C216">
-        <v>3.763242854918013</v>
+        <v>2.622582623914829</v>
       </c>
       <c r="D216">
-        <v>0.01357589359227616</v>
+        <v>6.081261272153236</v>
       </c>
       <c r="E216">
-        <v>6.232949282292512</v>
+        <v>8.601512918811382</v>
       </c>
       <c r="F216">
-        <v>4.77902847129902</v>
+        <v>0.004335928780510341</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1.903023261030588</v>
+        <v>10.44176384182396</v>
       </c>
       <c r="C217">
-        <v>3.735500689423084</v>
+        <v>2.58769707629469</v>
       </c>
       <c r="D217">
-        <v>0.01352979072499296</v>
+        <v>6.076049986865361</v>
       </c>
       <c r="E217">
-        <v>6.219810134370397</v>
+        <v>8.589771761455864</v>
       </c>
       <c r="F217">
-        <v>4.74969302871273</v>
+        <v>0.004291225206021824</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1.898517472918042</v>
+        <v>10.42463405453445</v>
       </c>
       <c r="C218">
-        <v>3.707874736187583</v>
+        <v>2.553086083854049</v>
       </c>
       <c r="D218">
-        <v>0.01348482713099796</v>
+        <v>6.070841464449098</v>
       </c>
       <c r="E218">
-        <v>6.206681147014973</v>
+        <v>8.578037717566579</v>
       </c>
       <c r="F218">
-        <v>4.720456524043867</v>
+        <v>0.004247363814121111</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1.894020392319147</v>
+        <v>10.40752477264285</v>
       </c>
       <c r="C219">
-        <v>3.680365251799814</v>
+        <v>2.518750349710488</v>
       </c>
       <c r="D219">
-        <v>0.0134409802183938</v>
+        <v>6.065635705233726</v>
       </c>
       <c r="E219">
-        <v>6.193562339350179</v>
+        <v>8.566310793555143</v>
       </c>
       <c r="F219">
-        <v>4.691319183662349</v>
+        <v>0.004204316291684106</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>1.889532009979134</v>
+        <v>10.39043598309781</v>
       </c>
       <c r="C220">
-        <v>3.652972489499308</v>
+        <v>2.484690553211541</v>
       </c>
       <c r="D220">
-        <v>0.01339822790515444</v>
+        <v>6.060432709547337</v>
       </c>
       <c r="E220">
-        <v>6.180453730530729</v>
+        <v>8.554590995833921</v>
       </c>
       <c r="F220">
-        <v>4.662281231862756</v>
+        <v>0.004162066055534095</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>1.885052316627073</v>
+        <v>10.37336767283893</v>
       </c>
       <c r="C221">
-        <v>3.625696699115911</v>
+        <v>2.450907349650418</v>
       </c>
       <c r="D221">
-        <v>0.01335654801432301</v>
+        <v>6.055232477716678</v>
       </c>
       <c r="E221">
-        <v>6.167355339743094</v>
+        <v>8.542878330816171</v>
       </c>
       <c r="F221">
-        <v>4.633342890615333</v>
+        <v>0.004120594845195713</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>1.88058130297597</v>
+        <v>10.35631982879614</v>
       </c>
       <c r="C222">
-        <v>3.598538127021289</v>
+        <v>2.417401369295013</v>
       </c>
       <c r="D222">
-        <v>0.01331592007338128</v>
+        <v>6.050035010067202</v>
       </c>
       <c r="E222">
-        <v>6.154267186204684</v>
+        <v>8.531172804916038</v>
       </c>
       <c r="F222">
-        <v>4.604504379406818</v>
+        <v>0.004079881037133681</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>1.876118959722864</v>
+        <v>10.33929243788418</v>
       </c>
       <c r="C223">
-        <v>3.571497016047621</v>
+        <v>2.384173216571546</v>
       </c>
       <c r="D223">
-        <v>0.01327631973233549</v>
+        <v>6.044840306923028</v>
       </c>
       <c r="E223">
-        <v>6.141189289163792</v>
+        <v>8.519474424548784</v>
       </c>
       <c r="F223">
-        <v>4.575765915631702</v>
+        <v>0.004039907496314591</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>1.871665277548904</v>
+        <v>10.32228548701274</v>
       </c>
       <c r="C224">
-        <v>3.54457360542986</v>
+        <v>2.351223469570343</v>
       </c>
       <c r="D224">
-        <v>0.01323772463207723</v>
+        <v>6.039648368607041</v>
       </c>
       <c r="E224">
-        <v>6.12812166789994</v>
+        <v>8.50778319613047</v>
       </c>
       <c r="F224">
-        <v>4.547127714412103</v>
+        <v>0.004000653032376704</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>1.867220247119407</v>
+        <v>10.30529896308429</v>
       </c>
       <c r="C225">
-        <v>3.517768130748904</v>
+        <v>2.318552679126617</v>
       </c>
       <c r="D225">
-        <v>0.0132001084699638</v>
+        <v>6.03445919544082</v>
       </c>
       <c r="E225">
-        <v>6.115064341723571</v>
+        <v>8.496099126078111</v>
       </c>
       <c r="F225">
-        <v>4.518589988555646</v>
+        <v>0.00396210193756619</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>1.86278385908397</v>
+        <v>10.28833285298785</v>
       </c>
       <c r="C226">
-        <v>3.491080823855459</v>
+        <v>2.286161368127276</v>
       </c>
       <c r="D226">
-        <v>0.01316344554535407</v>
+        <v>6.029272787744619</v>
       </c>
       <c r="E226">
-        <v>6.102017329976024</v>
+        <v>8.484422220809467</v>
       </c>
       <c r="F226">
-        <v>4.49015294823167</v>
+        <v>0.003924235112610628</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>1.858356104076535</v>
+        <v>10.27138714361041</v>
       </c>
       <c r="C227">
-        <v>3.464511912813446</v>
+        <v>2.254050030843344</v>
       </c>
       <c r="D227">
-        <v>0.01312773005133222</v>
+        <v>6.024089145837414</v>
       </c>
       <c r="E227">
-        <v>6.088980652029537</v>
+        <v>8.472752486743486</v>
       </c>
       <c r="F227">
-        <v>4.461816801610378</v>
+        <v>0.00388703417774435</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>1.853936972715489</v>
+        <v>10.25446182183315</v>
       </c>
       <c r="C228">
-        <v>3.43806162183709</v>
+        <v>2.222219132140369</v>
       </c>
       <c r="D228">
-        <v>0.01309294806019514</v>
+        <v>6.018908270036912</v>
       </c>
       <c r="E228">
-        <v>6.075954327287207</v>
+        <v>8.461089930300009</v>
       </c>
       <c r="F228">
-        <v>4.433581754418142</v>
+        <v>0.003850487359842327</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>1.849526455603739</v>
+        <v>10.23755687452684</v>
       </c>
       <c r="C229">
-        <v>3.411730171220506</v>
+        <v>2.19066910682552</v>
       </c>
       <c r="D229">
-        <v>0.01305906545083438</v>
+        <v>6.013730160659538</v>
       </c>
       <c r="E229">
-        <v>6.062938375182833</v>
+        <v>8.449434557899805</v>
       </c>
       <c r="F229">
-        <v>4.405448009988488</v>
+        <v>0.0038145785474028</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>1.845124543328761</v>
+        <v>10.2206722885614</v>
       </c>
       <c r="C230">
-        <v>3.385517777279412</v>
+        <v>2.159400358965053</v>
       </c>
       <c r="D230">
-        <v>0.0130260685506671</v>
+        <v>6.00855481802041</v>
       </c>
       <c r="E230">
-        <v>6.049932815180852</v>
+        <v>8.437786375963478</v>
       </c>
       <c r="F230">
-        <v>4.377415768935326</v>
+        <v>0.003779291312397649</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>1.840731226462742</v>
+        <v>10.20380805080212</v>
       </c>
       <c r="C231">
-        <v>3.359424652285407</v>
+        <v>2.128413260894007</v>
       </c>
       <c r="D231">
-        <v>0.0129939478503836</v>
+        <v>6.003382242433372</v>
       </c>
       <c r="E231">
-        <v>6.0369376667765</v>
+        <v>8.426145390913796</v>
       </c>
       <c r="F231">
-        <v>4.349485229820298</v>
+        <v>0.003744611592754713</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>1.836346495562627</v>
+        <v>10.18696414810731</v>
       </c>
       <c r="C232">
-        <v>3.333451004401828</v>
+        <v>2.097708152714419</v>
       </c>
       <c r="D232">
-        <v>0.01296268336880458</v>
+        <v>5.998212434210975</v>
       </c>
       <c r="E232">
-        <v>6.023952949495542</v>
+        <v>8.414511609174005</v>
       </c>
       <c r="F232">
-        <v>4.32165658863677</v>
+        <v>0.003710522691448312</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>1.831970341170201</v>
+        <v>10.1701405673348</v>
       </c>
       <c r="C233">
-        <v>3.307597037619688</v>
+        <v>2.067285341707918</v>
       </c>
       <c r="D233">
-        <v>0.01293226032897472</v>
+        <v>5.993045393664464</v>
       </c>
       <c r="E233">
-        <v>6.010978682894002</v>
+        <v>8.402885037168245</v>
       </c>
       <c r="F233">
-        <v>4.293930038869388</v>
+        <v>0.00367701369757052</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>1.827602753812178</v>
+        <v>10.15333729533922</v>
       </c>
       <c r="C234">
-        <v>3.281862951694709</v>
+        <v>2.037145102304254</v>
       </c>
       <c r="D234">
-        <v>0.012902658481026</v>
+        <v>5.98788112110384</v>
       </c>
       <c r="E234">
-        <v>5.998014886558643</v>
+        <v>8.391265681320254</v>
       </c>
       <c r="F234">
-        <v>4.26630577130471</v>
+        <v>0.003644066456835883</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>1.823243724000289</v>
+        <v>10.13655431897046</v>
       </c>
       <c r="C235">
-        <v>3.256248942092138</v>
+        <v>2.007287673428887</v>
       </c>
       <c r="D235">
-        <v>0.01287386609219989</v>
+        <v>5.982719616837811</v>
       </c>
       <c r="E235">
-        <v>5.985061580106532</v>
+        <v>8.379653548055778</v>
       </c>
       <c r="F235">
-        <v>4.238783974460974</v>
+        <v>0.00361167544186879</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>1.818893242231358</v>
+        <v>10.11979162507879</v>
       </c>
       <c r="C236">
-        <v>3.23075519990437</v>
+        <v>1.977713259323733</v>
       </c>
       <c r="D236">
-        <v>0.01284586497987826</v>
+        <v>5.977560881173789</v>
       </c>
       <c r="E236">
-        <v>5.972118783184826</v>
+        <v>8.368048643801076</v>
       </c>
       <c r="F236">
-        <v>4.211364834217109</v>
+        <v>0.003579821689520758</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>1.814551298987396</v>
+        <v>10.10304920051245</v>
       </c>
       <c r="C237">
-        <v>3.205381911799328</v>
+        <v>1.948422028595113</v>
       </c>
       <c r="D237">
-        <v>0.01281864193374033</v>
+        <v>5.972404914417837</v>
       </c>
       <c r="E237">
-        <v>5.959186515471075</v>
+        <v>8.356450974983087</v>
       </c>
       <c r="F237">
-        <v>4.184048533831252</v>
+        <v>0.003548492806378657</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>1.810217884735665</v>
+        <v>10.08632703211417</v>
       </c>
       <c r="C238">
-        <v>3.180129259953478</v>
+        <v>1.919414116050209</v>
       </c>
       <c r="D238">
-        <v>0.01279218605549953</v>
+        <v>5.967251716874818</v>
       </c>
       <c r="E238">
-        <v>5.946264796672982</v>
+        <v>8.344860548028898</v>
       </c>
       <c r="F238">
-        <v>4.156835253869509</v>
+        <v>0.003517677689042594</v>
       </c>
     </row>
   </sheetData>
